--- a/produtores_gorongosa.xlsx
+++ b/produtores_gorongosa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8082" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8658" uniqueCount="178">
   <si>
     <t>ID</t>
   </si>
@@ -519,7 +519,7 @@
     <t>Familia_Beneficiario</t>
   </si>
   <si>
-    <t>ProdutorLider1SIM0não</t>
+    <t>ProdutorLider</t>
   </si>
   <si>
     <t>presenca</t>
@@ -683,7 +683,9 @@
       <c r="K2" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="0"/>
+      <c r="L2" t="s">
+        <v>162</v>
+      </c>
       <c r="M2" t="s">
         <v>160</v>
       </c>
@@ -733,7 +735,9 @@
       <c r="K3" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="0"/>
+      <c r="L3" t="s">
+        <v>162</v>
+      </c>
       <c r="M3" t="s">
         <v>159</v>
       </c>
@@ -787,7 +791,9 @@
       <c r="K4" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="0"/>
+      <c r="L4" t="s">
+        <v>162</v>
+      </c>
       <c r="M4" t="s">
         <v>160</v>
       </c>
@@ -841,7 +847,9 @@
       <c r="K5" t="s">
         <v>159</v>
       </c>
-      <c r="L5" s="0"/>
+      <c r="L5" t="s">
+        <v>162</v>
+      </c>
       <c r="M5" t="s">
         <v>159</v>
       </c>
@@ -895,7 +903,9 @@
       <c r="K6" t="s">
         <v>160</v>
       </c>
-      <c r="L6" s="0"/>
+      <c r="L6" t="s">
+        <v>162</v>
+      </c>
       <c r="M6" t="s">
         <v>159</v>
       </c>
@@ -949,7 +959,9 @@
       <c r="K7" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="0"/>
+      <c r="L7" t="s">
+        <v>162</v>
+      </c>
       <c r="M7" t="s">
         <v>160</v>
       </c>
@@ -1003,7 +1015,9 @@
       <c r="K8" t="s">
         <v>160</v>
       </c>
-      <c r="L8" s="0"/>
+      <c r="L8" t="s">
+        <v>162</v>
+      </c>
       <c r="M8" t="s">
         <v>160</v>
       </c>
@@ -1053,7 +1067,9 @@
       <c r="K9" t="s">
         <v>159</v>
       </c>
-      <c r="L9" s="0"/>
+      <c r="L9" t="s">
+        <v>162</v>
+      </c>
       <c r="M9" t="s">
         <v>159</v>
       </c>
@@ -1107,7 +1123,9 @@
       <c r="K10" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="0"/>
+      <c r="L10" t="s">
+        <v>162</v>
+      </c>
       <c r="M10" t="s">
         <v>160</v>
       </c>
@@ -1161,7 +1179,9 @@
       <c r="K11" t="s">
         <v>160</v>
       </c>
-      <c r="L11" s="0"/>
+      <c r="L11" t="s">
+        <v>162</v>
+      </c>
       <c r="M11" t="s">
         <v>160</v>
       </c>
@@ -1215,7 +1235,9 @@
       <c r="K12" t="s">
         <v>160</v>
       </c>
-      <c r="L12" s="0"/>
+      <c r="L12" t="s">
+        <v>162</v>
+      </c>
       <c r="M12" t="s">
         <v>159</v>
       </c>
@@ -1269,7 +1291,9 @@
       <c r="K13" t="s">
         <v>159</v>
       </c>
-      <c r="L13" s="0"/>
+      <c r="L13" t="s">
+        <v>162</v>
+      </c>
       <c r="M13" t="s">
         <v>159</v>
       </c>
@@ -1323,7 +1347,9 @@
       <c r="K14" t="s">
         <v>159</v>
       </c>
-      <c r="L14" s="0"/>
+      <c r="L14" t="s">
+        <v>162</v>
+      </c>
       <c r="M14" t="s">
         <v>160</v>
       </c>
@@ -1377,7 +1403,9 @@
       <c r="K15" t="s">
         <v>160</v>
       </c>
-      <c r="L15" s="0"/>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
       <c r="M15" t="s">
         <v>160</v>
       </c>
@@ -1431,7 +1459,9 @@
       <c r="K16" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="0"/>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
       <c r="M16" t="s">
         <v>160</v>
       </c>
@@ -1485,7 +1515,9 @@
       <c r="K17" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="0"/>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
       <c r="M17" t="s">
         <v>160</v>
       </c>
@@ -1537,7 +1569,9 @@
       <c r="K18" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="0"/>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
       <c r="M18" t="s">
         <v>159</v>
       </c>
@@ -1591,7 +1625,9 @@
       <c r="K19" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="0"/>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
       <c r="M19" t="s">
         <v>160</v>
       </c>
@@ -1645,7 +1681,9 @@
       <c r="K20" t="s">
         <v>160</v>
       </c>
-      <c r="L20" s="0"/>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
       <c r="M20" t="s">
         <v>160</v>
       </c>
@@ -1699,7 +1737,9 @@
       <c r="K21" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="0"/>
+      <c r="L21" t="s">
+        <v>162</v>
+      </c>
       <c r="M21" t="s">
         <v>160</v>
       </c>
@@ -1753,7 +1793,9 @@
       <c r="K22" t="s">
         <v>160</v>
       </c>
-      <c r="L22" s="0"/>
+      <c r="L22" t="s">
+        <v>162</v>
+      </c>
       <c r="M22" t="s">
         <v>160</v>
       </c>
@@ -1805,7 +1847,9 @@
       <c r="K23" t="s">
         <v>160</v>
       </c>
-      <c r="L23" s="0"/>
+      <c r="L23" t="s">
+        <v>162</v>
+      </c>
       <c r="M23" t="s">
         <v>160</v>
       </c>
@@ -1859,7 +1903,9 @@
       <c r="K24" t="s">
         <v>160</v>
       </c>
-      <c r="L24" s="0"/>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
       <c r="M24" t="s">
         <v>160</v>
       </c>
@@ -1913,7 +1959,9 @@
       <c r="K25" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="0"/>
+      <c r="L25" t="s">
+        <v>162</v>
+      </c>
       <c r="M25" t="s">
         <v>160</v>
       </c>
@@ -1967,7 +2015,9 @@
       <c r="K26" t="s">
         <v>160</v>
       </c>
-      <c r="L26" s="0"/>
+      <c r="L26" t="s">
+        <v>162</v>
+      </c>
       <c r="M26" t="s">
         <v>160</v>
       </c>
@@ -2021,7 +2071,9 @@
       <c r="K27" t="s">
         <v>160</v>
       </c>
-      <c r="L27" s="0"/>
+      <c r="L27" t="s">
+        <v>162</v>
+      </c>
       <c r="M27" t="s">
         <v>160</v>
       </c>
@@ -2075,7 +2127,9 @@
       <c r="K28" t="s">
         <v>160</v>
       </c>
-      <c r="L28" s="0"/>
+      <c r="L28" t="s">
+        <v>162</v>
+      </c>
       <c r="M28" t="s">
         <v>160</v>
       </c>
@@ -2129,7 +2183,9 @@
       <c r="K29" t="s">
         <v>160</v>
       </c>
-      <c r="L29" s="0"/>
+      <c r="L29" t="s">
+        <v>162</v>
+      </c>
       <c r="M29" t="s">
         <v>159</v>
       </c>
@@ -2183,7 +2239,9 @@
       <c r="K30" t="s">
         <v>160</v>
       </c>
-      <c r="L30" s="0"/>
+      <c r="L30" t="s">
+        <v>162</v>
+      </c>
       <c r="M30" t="s">
         <v>159</v>
       </c>
@@ -2235,7 +2293,9 @@
       <c r="K31" t="s">
         <v>160</v>
       </c>
-      <c r="L31" s="0"/>
+      <c r="L31" t="s">
+        <v>162</v>
+      </c>
       <c r="M31" t="s">
         <v>159</v>
       </c>
@@ -2289,7 +2349,9 @@
       <c r="K32" t="s">
         <v>160</v>
       </c>
-      <c r="L32" s="0"/>
+      <c r="L32" t="s">
+        <v>162</v>
+      </c>
       <c r="M32" t="s">
         <v>160</v>
       </c>
@@ -2343,7 +2405,9 @@
       <c r="K33" t="s">
         <v>160</v>
       </c>
-      <c r="L33" s="0"/>
+      <c r="L33" t="s">
+        <v>162</v>
+      </c>
       <c r="M33" t="s">
         <v>160</v>
       </c>
@@ -2397,7 +2461,9 @@
       <c r="K34" t="s">
         <v>160</v>
       </c>
-      <c r="L34" s="0"/>
+      <c r="L34" t="s">
+        <v>162</v>
+      </c>
       <c r="M34" t="s">
         <v>160</v>
       </c>
@@ -2451,7 +2517,9 @@
       <c r="K35" t="s">
         <v>160</v>
       </c>
-      <c r="L35" s="0"/>
+      <c r="L35" t="s">
+        <v>162</v>
+      </c>
       <c r="M35" t="s">
         <v>160</v>
       </c>
@@ -2505,7 +2573,9 @@
       <c r="K36" t="s">
         <v>160</v>
       </c>
-      <c r="L36" s="0"/>
+      <c r="L36" t="s">
+        <v>162</v>
+      </c>
       <c r="M36" t="s">
         <v>160</v>
       </c>
@@ -2559,7 +2629,9 @@
       <c r="K37" t="s">
         <v>160</v>
       </c>
-      <c r="L37" s="0"/>
+      <c r="L37" t="s">
+        <v>162</v>
+      </c>
       <c r="M37" t="s">
         <v>160</v>
       </c>
@@ -2613,7 +2685,9 @@
       <c r="K38" t="s">
         <v>160</v>
       </c>
-      <c r="L38" s="0"/>
+      <c r="L38" t="s">
+        <v>162</v>
+      </c>
       <c r="M38" t="s">
         <v>159</v>
       </c>
@@ -2667,7 +2741,9 @@
       <c r="K39" t="s">
         <v>160</v>
       </c>
-      <c r="L39" s="0"/>
+      <c r="L39" t="s">
+        <v>162</v>
+      </c>
       <c r="M39" t="s">
         <v>160</v>
       </c>
@@ -2719,7 +2795,9 @@
       <c r="K40" t="s">
         <v>159</v>
       </c>
-      <c r="L40" s="0"/>
+      <c r="L40" t="s">
+        <v>162</v>
+      </c>
       <c r="M40" t="s">
         <v>160</v>
       </c>
@@ -2771,7 +2849,9 @@
       <c r="K41" t="s">
         <v>160</v>
       </c>
-      <c r="L41" s="0"/>
+      <c r="L41" t="s">
+        <v>162</v>
+      </c>
       <c r="M41" t="s">
         <v>160</v>
       </c>
@@ -2825,7 +2905,9 @@
       <c r="K42" t="s">
         <v>159</v>
       </c>
-      <c r="L42" s="0"/>
+      <c r="L42" t="s">
+        <v>162</v>
+      </c>
       <c r="M42" t="s">
         <v>160</v>
       </c>
@@ -2877,7 +2959,9 @@
       <c r="K43" t="s">
         <v>160</v>
       </c>
-      <c r="L43" s="0"/>
+      <c r="L43" t="s">
+        <v>162</v>
+      </c>
       <c r="M43" t="s">
         <v>160</v>
       </c>
@@ -2929,7 +3013,9 @@
       <c r="K44" t="s">
         <v>160</v>
       </c>
-      <c r="L44" s="0"/>
+      <c r="L44" t="s">
+        <v>162</v>
+      </c>
       <c r="M44" t="s">
         <v>160</v>
       </c>
@@ -2981,7 +3067,9 @@
       <c r="K45" t="s">
         <v>160</v>
       </c>
-      <c r="L45" s="0"/>
+      <c r="L45" t="s">
+        <v>162</v>
+      </c>
       <c r="M45" t="s">
         <v>159</v>
       </c>
@@ -3035,7 +3123,9 @@
       <c r="K46" t="s">
         <v>160</v>
       </c>
-      <c r="L46" s="0"/>
+      <c r="L46" t="s">
+        <v>162</v>
+      </c>
       <c r="M46" t="s">
         <v>160</v>
       </c>
@@ -3087,7 +3177,9 @@
       <c r="K47" t="s">
         <v>160</v>
       </c>
-      <c r="L47" s="0"/>
+      <c r="L47" t="s">
+        <v>162</v>
+      </c>
       <c r="M47" t="s">
         <v>160</v>
       </c>
@@ -3141,7 +3233,9 @@
       <c r="K48" t="s">
         <v>160</v>
       </c>
-      <c r="L48" s="0"/>
+      <c r="L48" t="s">
+        <v>162</v>
+      </c>
       <c r="M48" t="s">
         <v>160</v>
       </c>
@@ -3193,7 +3287,9 @@
       <c r="K49" t="s">
         <v>160</v>
       </c>
-      <c r="L49" s="0"/>
+      <c r="L49" t="s">
+        <v>162</v>
+      </c>
       <c r="M49" t="s">
         <v>160</v>
       </c>
@@ -3247,7 +3343,9 @@
       <c r="K50" t="s">
         <v>160</v>
       </c>
-      <c r="L50" s="0"/>
+      <c r="L50" t="s">
+        <v>162</v>
+      </c>
       <c r="M50" t="s">
         <v>160</v>
       </c>
@@ -3299,7 +3397,9 @@
       <c r="K51" t="s">
         <v>160</v>
       </c>
-      <c r="L51" s="0"/>
+      <c r="L51" t="s">
+        <v>162</v>
+      </c>
       <c r="M51" t="s">
         <v>160</v>
       </c>
@@ -3353,7 +3453,9 @@
       <c r="K52" t="s">
         <v>160</v>
       </c>
-      <c r="L52" s="0"/>
+      <c r="L52" t="s">
+        <v>162</v>
+      </c>
       <c r="M52" t="s">
         <v>160</v>
       </c>
@@ -3405,7 +3507,9 @@
       <c r="K53" t="s">
         <v>160</v>
       </c>
-      <c r="L53" s="0"/>
+      <c r="L53" t="s">
+        <v>162</v>
+      </c>
       <c r="M53" t="s">
         <v>159</v>
       </c>
@@ -3457,7 +3561,9 @@
       <c r="K54" t="s">
         <v>160</v>
       </c>
-      <c r="L54" s="0"/>
+      <c r="L54" t="s">
+        <v>162</v>
+      </c>
       <c r="M54" t="s">
         <v>160</v>
       </c>
@@ -3509,7 +3615,9 @@
       <c r="K55" t="s">
         <v>160</v>
       </c>
-      <c r="L55" s="0"/>
+      <c r="L55" t="s">
+        <v>162</v>
+      </c>
       <c r="M55" t="s">
         <v>160</v>
       </c>
@@ -3561,7 +3669,9 @@
       <c r="K56" t="s">
         <v>160</v>
       </c>
-      <c r="L56" s="0"/>
+      <c r="L56" t="s">
+        <v>162</v>
+      </c>
       <c r="M56" t="s">
         <v>160</v>
       </c>
@@ -3615,7 +3725,9 @@
       <c r="K57" t="s">
         <v>160</v>
       </c>
-      <c r="L57" s="0"/>
+      <c r="L57" t="s">
+        <v>162</v>
+      </c>
       <c r="M57" t="s">
         <v>159</v>
       </c>
@@ -3669,7 +3781,9 @@
       <c r="K58" t="s">
         <v>160</v>
       </c>
-      <c r="L58" s="0"/>
+      <c r="L58" t="s">
+        <v>162</v>
+      </c>
       <c r="M58" t="s">
         <v>159</v>
       </c>
@@ -3721,7 +3835,9 @@
       <c r="K59" t="s">
         <v>160</v>
       </c>
-      <c r="L59" s="0"/>
+      <c r="L59" t="s">
+        <v>162</v>
+      </c>
       <c r="M59" t="s">
         <v>160</v>
       </c>
@@ -3773,7 +3889,9 @@
       <c r="K60" t="s">
         <v>160</v>
       </c>
-      <c r="L60" s="0"/>
+      <c r="L60" t="s">
+        <v>162</v>
+      </c>
       <c r="M60" t="s">
         <v>159</v>
       </c>
@@ -3827,7 +3945,9 @@
       <c r="K61" t="s">
         <v>159</v>
       </c>
-      <c r="L61" s="0"/>
+      <c r="L61" t="s">
+        <v>162</v>
+      </c>
       <c r="M61" t="s">
         <v>160</v>
       </c>
@@ -3881,7 +4001,9 @@
       <c r="K62" t="s">
         <v>159</v>
       </c>
-      <c r="L62" s="0"/>
+      <c r="L62" t="s">
+        <v>162</v>
+      </c>
       <c r="M62" t="s">
         <v>160</v>
       </c>
@@ -3935,7 +4057,9 @@
       <c r="K63" t="s">
         <v>160</v>
       </c>
-      <c r="L63" s="0"/>
+      <c r="L63" t="s">
+        <v>162</v>
+      </c>
       <c r="M63" t="s">
         <v>160</v>
       </c>
@@ -3989,7 +4113,9 @@
       <c r="K64" t="s">
         <v>159</v>
       </c>
-      <c r="L64" s="0"/>
+      <c r="L64" t="s">
+        <v>162</v>
+      </c>
       <c r="M64" t="s">
         <v>160</v>
       </c>
@@ -4041,7 +4167,9 @@
       <c r="K65" t="s">
         <v>159</v>
       </c>
-      <c r="L65" s="0"/>
+      <c r="L65" t="s">
+        <v>162</v>
+      </c>
       <c r="M65" t="s">
         <v>160</v>
       </c>
@@ -4093,7 +4221,9 @@
       <c r="K66" t="s">
         <v>160</v>
       </c>
-      <c r="L66" s="0"/>
+      <c r="L66" t="s">
+        <v>162</v>
+      </c>
       <c r="M66" t="s">
         <v>160</v>
       </c>
@@ -4145,7 +4275,9 @@
       <c r="K67" t="s">
         <v>160</v>
       </c>
-      <c r="L67" s="0"/>
+      <c r="L67" t="s">
+        <v>162</v>
+      </c>
       <c r="M67" t="s">
         <v>160</v>
       </c>
@@ -4197,7 +4329,9 @@
       <c r="K68" t="s">
         <v>160</v>
       </c>
-      <c r="L68" s="0"/>
+      <c r="L68" t="s">
+        <v>162</v>
+      </c>
       <c r="M68" t="s">
         <v>160</v>
       </c>
@@ -4251,7 +4385,9 @@
       <c r="K69" t="s">
         <v>160</v>
       </c>
-      <c r="L69" s="0"/>
+      <c r="L69" t="s">
+        <v>162</v>
+      </c>
       <c r="M69" t="s">
         <v>160</v>
       </c>
@@ -4305,7 +4441,9 @@
       <c r="K70" t="s">
         <v>159</v>
       </c>
-      <c r="L70" s="0"/>
+      <c r="L70" t="s">
+        <v>162</v>
+      </c>
       <c r="M70" t="s">
         <v>159</v>
       </c>
@@ -4359,7 +4497,9 @@
       <c r="K71" t="s">
         <v>160</v>
       </c>
-      <c r="L71" s="0"/>
+      <c r="L71" t="s">
+        <v>162</v>
+      </c>
       <c r="M71" t="s">
         <v>159</v>
       </c>
@@ -4413,7 +4553,9 @@
       <c r="K72" t="s">
         <v>160</v>
       </c>
-      <c r="L72" s="0"/>
+      <c r="L72" t="s">
+        <v>162</v>
+      </c>
       <c r="M72" t="s">
         <v>159</v>
       </c>
@@ -4467,7 +4609,9 @@
       <c r="K73" t="s">
         <v>160</v>
       </c>
-      <c r="L73" s="0"/>
+      <c r="L73" t="s">
+        <v>162</v>
+      </c>
       <c r="M73" t="s">
         <v>160</v>
       </c>
@@ -4521,7 +4665,9 @@
       <c r="K74" t="s">
         <v>159</v>
       </c>
-      <c r="L74" s="0"/>
+      <c r="L74" t="s">
+        <v>162</v>
+      </c>
       <c r="M74" t="s">
         <v>160</v>
       </c>
@@ -4571,7 +4717,9 @@
       <c r="K75" t="s">
         <v>159</v>
       </c>
-      <c r="L75" s="0"/>
+      <c r="L75" t="s">
+        <v>162</v>
+      </c>
       <c r="M75" t="s">
         <v>159</v>
       </c>
@@ -4625,7 +4773,9 @@
       <c r="K76" t="s">
         <v>159</v>
       </c>
-      <c r="L76" s="0"/>
+      <c r="L76" t="s">
+        <v>162</v>
+      </c>
       <c r="M76" t="s">
         <v>160</v>
       </c>
@@ -4679,7 +4829,9 @@
       <c r="K77" t="s">
         <v>159</v>
       </c>
-      <c r="L77" s="0"/>
+      <c r="L77" t="s">
+        <v>162</v>
+      </c>
       <c r="M77" t="s">
         <v>160</v>
       </c>
@@ -4733,7 +4885,9 @@
       <c r="K78" t="s">
         <v>160</v>
       </c>
-      <c r="L78" s="0"/>
+      <c r="L78" t="s">
+        <v>162</v>
+      </c>
       <c r="M78" t="s">
         <v>160</v>
       </c>
@@ -4787,7 +4941,9 @@
       <c r="K79" t="s">
         <v>159</v>
       </c>
-      <c r="L79" s="0"/>
+      <c r="L79" t="s">
+        <v>162</v>
+      </c>
       <c r="M79" t="s">
         <v>160</v>
       </c>
@@ -4841,7 +4997,9 @@
       <c r="K80" t="s">
         <v>160</v>
       </c>
-      <c r="L80" s="0"/>
+      <c r="L80" t="s">
+        <v>162</v>
+      </c>
       <c r="M80" t="s">
         <v>160</v>
       </c>
@@ -4891,7 +5049,9 @@
       <c r="K81" t="s">
         <v>159</v>
       </c>
-      <c r="L81" s="0"/>
+      <c r="L81" t="s">
+        <v>162</v>
+      </c>
       <c r="M81" t="s">
         <v>159</v>
       </c>
@@ -4945,7 +5105,9 @@
       <c r="K82" t="s">
         <v>159</v>
       </c>
-      <c r="L82" s="0"/>
+      <c r="L82" t="s">
+        <v>162</v>
+      </c>
       <c r="M82" t="s">
         <v>160</v>
       </c>
@@ -4999,7 +5161,9 @@
       <c r="K83" t="s">
         <v>160</v>
       </c>
-      <c r="L83" s="0"/>
+      <c r="L83" t="s">
+        <v>162</v>
+      </c>
       <c r="M83" t="s">
         <v>160</v>
       </c>
@@ -5053,7 +5217,9 @@
       <c r="K84" t="s">
         <v>160</v>
       </c>
-      <c r="L84" s="0"/>
+      <c r="L84" t="s">
+        <v>162</v>
+      </c>
       <c r="M84" t="s">
         <v>160</v>
       </c>
@@ -5107,7 +5273,9 @@
       <c r="K85" t="s">
         <v>159</v>
       </c>
-      <c r="L85" s="0"/>
+      <c r="L85" t="s">
+        <v>162</v>
+      </c>
       <c r="M85" t="s">
         <v>160</v>
       </c>
@@ -5161,7 +5329,9 @@
       <c r="K86" t="s">
         <v>159</v>
       </c>
-      <c r="L86" s="0"/>
+      <c r="L86" t="s">
+        <v>162</v>
+      </c>
       <c r="M86" t="s">
         <v>160</v>
       </c>
@@ -5215,7 +5385,9 @@
       <c r="K87" t="s">
         <v>160</v>
       </c>
-      <c r="L87" s="0"/>
+      <c r="L87" t="s">
+        <v>162</v>
+      </c>
       <c r="M87" t="s">
         <v>160</v>
       </c>
@@ -5269,7 +5441,9 @@
       <c r="K88" t="s">
         <v>160</v>
       </c>
-      <c r="L88" s="0"/>
+      <c r="L88" t="s">
+        <v>162</v>
+      </c>
       <c r="M88" t="s">
         <v>160</v>
       </c>
@@ -5323,7 +5497,9 @@
       <c r="K89" t="s">
         <v>160</v>
       </c>
-      <c r="L89" s="0"/>
+      <c r="L89" t="s">
+        <v>162</v>
+      </c>
       <c r="M89" t="s">
         <v>160</v>
       </c>
@@ -5375,7 +5551,9 @@
       <c r="K90" t="s">
         <v>160</v>
       </c>
-      <c r="L90" s="0"/>
+      <c r="L90" t="s">
+        <v>162</v>
+      </c>
       <c r="M90" t="s">
         <v>160</v>
       </c>
@@ -5429,7 +5607,9 @@
       <c r="K91" t="s">
         <v>160</v>
       </c>
-      <c r="L91" s="0"/>
+      <c r="L91" t="s">
+        <v>162</v>
+      </c>
       <c r="M91" t="s">
         <v>160</v>
       </c>
@@ -5483,7 +5663,9 @@
       <c r="K92" t="s">
         <v>160</v>
       </c>
-      <c r="L92" s="0"/>
+      <c r="L92" t="s">
+        <v>162</v>
+      </c>
       <c r="M92" t="s">
         <v>160</v>
       </c>
@@ -5537,7 +5719,9 @@
       <c r="K93" t="s">
         <v>160</v>
       </c>
-      <c r="L93" s="0"/>
+      <c r="L93" t="s">
+        <v>162</v>
+      </c>
       <c r="M93" t="s">
         <v>160</v>
       </c>
@@ -5591,7 +5775,9 @@
       <c r="K94" t="s">
         <v>160</v>
       </c>
-      <c r="L94" s="0"/>
+      <c r="L94" t="s">
+        <v>162</v>
+      </c>
       <c r="M94" t="s">
         <v>160</v>
       </c>
@@ -5643,7 +5829,9 @@
       <c r="K95" t="s">
         <v>160</v>
       </c>
-      <c r="L95" s="0"/>
+      <c r="L95" t="s">
+        <v>162</v>
+      </c>
       <c r="M95" t="s">
         <v>160</v>
       </c>
@@ -5697,7 +5885,9 @@
       <c r="K96" t="s">
         <v>160</v>
       </c>
-      <c r="L96" s="0"/>
+      <c r="L96" t="s">
+        <v>162</v>
+      </c>
       <c r="M96" t="s">
         <v>160</v>
       </c>
@@ -5751,7 +5941,9 @@
       <c r="K97" t="s">
         <v>160</v>
       </c>
-      <c r="L97" s="0"/>
+      <c r="L97" t="s">
+        <v>162</v>
+      </c>
       <c r="M97" t="s">
         <v>159</v>
       </c>
@@ -5805,7 +5997,9 @@
       <c r="K98" t="s">
         <v>160</v>
       </c>
-      <c r="L98" s="0"/>
+      <c r="L98" t="s">
+        <v>162</v>
+      </c>
       <c r="M98" t="s">
         <v>160</v>
       </c>
@@ -5859,7 +6053,9 @@
       <c r="K99" t="s">
         <v>160</v>
       </c>
-      <c r="L99" s="0"/>
+      <c r="L99" t="s">
+        <v>162</v>
+      </c>
       <c r="M99" t="s">
         <v>160</v>
       </c>
@@ -5913,7 +6109,9 @@
       <c r="K100" t="s">
         <v>160</v>
       </c>
-      <c r="L100" s="0"/>
+      <c r="L100" t="s">
+        <v>162</v>
+      </c>
       <c r="M100" t="s">
         <v>160</v>
       </c>
@@ -5967,7 +6165,9 @@
       <c r="K101" t="s">
         <v>160</v>
       </c>
-      <c r="L101" s="0"/>
+      <c r="L101" t="s">
+        <v>162</v>
+      </c>
       <c r="M101" t="s">
         <v>160</v>
       </c>
@@ -6021,7 +6221,9 @@
       <c r="K102" t="s">
         <v>160</v>
       </c>
-      <c r="L102" s="0"/>
+      <c r="L102" t="s">
+        <v>162</v>
+      </c>
       <c r="M102" t="s">
         <v>160</v>
       </c>
@@ -6073,7 +6275,9 @@
       <c r="K103" t="s">
         <v>160</v>
       </c>
-      <c r="L103" s="0"/>
+      <c r="L103" t="s">
+        <v>162</v>
+      </c>
       <c r="M103" t="s">
         <v>160</v>
       </c>
@@ -6127,7 +6331,9 @@
       <c r="K104" t="s">
         <v>160</v>
       </c>
-      <c r="L104" s="0"/>
+      <c r="L104" t="s">
+        <v>162</v>
+      </c>
       <c r="M104" t="s">
         <v>160</v>
       </c>
@@ -6181,7 +6387,9 @@
       <c r="K105" t="s">
         <v>160</v>
       </c>
-      <c r="L105" s="0"/>
+      <c r="L105" t="s">
+        <v>162</v>
+      </c>
       <c r="M105" t="s">
         <v>160</v>
       </c>
@@ -6235,7 +6443,9 @@
       <c r="K106" t="s">
         <v>160</v>
       </c>
-      <c r="L106" s="0"/>
+      <c r="L106" t="s">
+        <v>162</v>
+      </c>
       <c r="M106" t="s">
         <v>160</v>
       </c>
@@ -6289,7 +6499,9 @@
       <c r="K107" t="s">
         <v>160</v>
       </c>
-      <c r="L107" s="0"/>
+      <c r="L107" t="s">
+        <v>162</v>
+      </c>
       <c r="M107" t="s">
         <v>160</v>
       </c>
@@ -6343,7 +6555,9 @@
       <c r="K108" t="s">
         <v>160</v>
       </c>
-      <c r="L108" s="0"/>
+      <c r="L108" t="s">
+        <v>162</v>
+      </c>
       <c r="M108" t="s">
         <v>160</v>
       </c>
@@ -6397,7 +6611,9 @@
       <c r="K109" t="s">
         <v>160</v>
       </c>
-      <c r="L109" s="0"/>
+      <c r="L109" t="s">
+        <v>162</v>
+      </c>
       <c r="M109" t="s">
         <v>160</v>
       </c>
@@ -6451,7 +6667,9 @@
       <c r="K110" t="s">
         <v>160</v>
       </c>
-      <c r="L110" s="0"/>
+      <c r="L110" t="s">
+        <v>162</v>
+      </c>
       <c r="M110" t="s">
         <v>160</v>
       </c>
@@ -6505,7 +6723,9 @@
       <c r="K111" t="s">
         <v>160</v>
       </c>
-      <c r="L111" s="0"/>
+      <c r="L111" t="s">
+        <v>162</v>
+      </c>
       <c r="M111" t="s">
         <v>160</v>
       </c>
@@ -6557,7 +6777,9 @@
       <c r="K112" t="s">
         <v>159</v>
       </c>
-      <c r="L112" s="0"/>
+      <c r="L112" t="s">
+        <v>162</v>
+      </c>
       <c r="M112" t="s">
         <v>160</v>
       </c>
@@ -6609,7 +6831,9 @@
       <c r="K113" t="s">
         <v>160</v>
       </c>
-      <c r="L113" s="0"/>
+      <c r="L113" t="s">
+        <v>162</v>
+      </c>
       <c r="M113" t="s">
         <v>160</v>
       </c>
@@ -6663,7 +6887,9 @@
       <c r="K114" t="s">
         <v>159</v>
       </c>
-      <c r="L114" s="0"/>
+      <c r="L114" t="s">
+        <v>162</v>
+      </c>
       <c r="M114" t="s">
         <v>160</v>
       </c>
@@ -6715,7 +6941,9 @@
       <c r="K115" t="s">
         <v>160</v>
       </c>
-      <c r="L115" s="0"/>
+      <c r="L115" t="s">
+        <v>162</v>
+      </c>
       <c r="M115" t="s">
         <v>160</v>
       </c>
@@ -6767,7 +6995,9 @@
       <c r="K116" t="s">
         <v>160</v>
       </c>
-      <c r="L116" s="0"/>
+      <c r="L116" t="s">
+        <v>162</v>
+      </c>
       <c r="M116" t="s">
         <v>160</v>
       </c>
@@ -6819,7 +7049,9 @@
       <c r="K117" t="s">
         <v>160</v>
       </c>
-      <c r="L117" s="0"/>
+      <c r="L117" t="s">
+        <v>162</v>
+      </c>
       <c r="M117" t="s">
         <v>160</v>
       </c>
@@ -6873,7 +7105,9 @@
       <c r="K118" t="s">
         <v>160</v>
       </c>
-      <c r="L118" s="0"/>
+      <c r="L118" t="s">
+        <v>162</v>
+      </c>
       <c r="M118" t="s">
         <v>160</v>
       </c>
@@ -6925,7 +7159,9 @@
       <c r="K119" t="s">
         <v>160</v>
       </c>
-      <c r="L119" s="0"/>
+      <c r="L119" t="s">
+        <v>162</v>
+      </c>
       <c r="M119" t="s">
         <v>160</v>
       </c>
@@ -6979,7 +7215,9 @@
       <c r="K120" t="s">
         <v>160</v>
       </c>
-      <c r="L120" s="0"/>
+      <c r="L120" t="s">
+        <v>162</v>
+      </c>
       <c r="M120" t="s">
         <v>160</v>
       </c>
@@ -7031,7 +7269,9 @@
       <c r="K121" t="s">
         <v>160</v>
       </c>
-      <c r="L121" s="0"/>
+      <c r="L121" t="s">
+        <v>162</v>
+      </c>
       <c r="M121" t="s">
         <v>160</v>
       </c>
@@ -7085,7 +7325,9 @@
       <c r="K122" t="s">
         <v>160</v>
       </c>
-      <c r="L122" s="0"/>
+      <c r="L122" t="s">
+        <v>162</v>
+      </c>
       <c r="M122" t="s">
         <v>160</v>
       </c>
@@ -7137,7 +7379,9 @@
       <c r="K123" t="s">
         <v>160</v>
       </c>
-      <c r="L123" s="0"/>
+      <c r="L123" t="s">
+        <v>162</v>
+      </c>
       <c r="M123" t="s">
         <v>160</v>
       </c>
@@ -7191,7 +7435,9 @@
       <c r="K124" t="s">
         <v>160</v>
       </c>
-      <c r="L124" s="0"/>
+      <c r="L124" t="s">
+        <v>162</v>
+      </c>
       <c r="M124" t="s">
         <v>160</v>
       </c>
@@ -7243,7 +7489,9 @@
       <c r="K125" t="s">
         <v>160</v>
       </c>
-      <c r="L125" s="0"/>
+      <c r="L125" t="s">
+        <v>162</v>
+      </c>
       <c r="M125" t="s">
         <v>159</v>
       </c>
@@ -7295,7 +7543,9 @@
       <c r="K126" t="s">
         <v>160</v>
       </c>
-      <c r="L126" s="0"/>
+      <c r="L126" t="s">
+        <v>162</v>
+      </c>
       <c r="M126" t="s">
         <v>160</v>
       </c>
@@ -7347,7 +7597,9 @@
       <c r="K127" t="s">
         <v>160</v>
       </c>
-      <c r="L127" s="0"/>
+      <c r="L127" t="s">
+        <v>162</v>
+      </c>
       <c r="M127" t="s">
         <v>160</v>
       </c>
@@ -7399,7 +7651,9 @@
       <c r="K128" t="s">
         <v>160</v>
       </c>
-      <c r="L128" s="0"/>
+      <c r="L128" t="s">
+        <v>162</v>
+      </c>
       <c r="M128" t="s">
         <v>160</v>
       </c>
@@ -7453,7 +7707,9 @@
       <c r="K129" t="s">
         <v>160</v>
       </c>
-      <c r="L129" s="0"/>
+      <c r="L129" t="s">
+        <v>162</v>
+      </c>
       <c r="M129" t="s">
         <v>159</v>
       </c>
@@ -7507,7 +7763,9 @@
       <c r="K130" t="s">
         <v>160</v>
       </c>
-      <c r="L130" s="0"/>
+      <c r="L130" t="s">
+        <v>162</v>
+      </c>
       <c r="M130" t="s">
         <v>160</v>
       </c>
@@ -7559,7 +7817,9 @@
       <c r="K131" t="s">
         <v>160</v>
       </c>
-      <c r="L131" s="0"/>
+      <c r="L131" t="s">
+        <v>162</v>
+      </c>
       <c r="M131" t="s">
         <v>160</v>
       </c>
@@ -7611,7 +7871,9 @@
       <c r="K132" t="s">
         <v>160</v>
       </c>
-      <c r="L132" s="0"/>
+      <c r="L132" t="s">
+        <v>162</v>
+      </c>
       <c r="M132" t="s">
         <v>160</v>
       </c>
@@ -7665,7 +7927,9 @@
       <c r="K133" t="s">
         <v>159</v>
       </c>
-      <c r="L133" s="0"/>
+      <c r="L133" t="s">
+        <v>162</v>
+      </c>
       <c r="M133" t="s">
         <v>160</v>
       </c>
@@ -7719,7 +7983,9 @@
       <c r="K134" t="s">
         <v>159</v>
       </c>
-      <c r="L134" s="0"/>
+      <c r="L134" t="s">
+        <v>162</v>
+      </c>
       <c r="M134" t="s">
         <v>160</v>
       </c>
@@ -7773,7 +8039,9 @@
       <c r="K135" t="s">
         <v>160</v>
       </c>
-      <c r="L135" s="0"/>
+      <c r="L135" t="s">
+        <v>162</v>
+      </c>
       <c r="M135" t="s">
         <v>160</v>
       </c>
@@ -7827,7 +8095,9 @@
       <c r="K136" t="s">
         <v>159</v>
       </c>
-      <c r="L136" s="0"/>
+      <c r="L136" t="s">
+        <v>162</v>
+      </c>
       <c r="M136" t="s">
         <v>160</v>
       </c>
@@ -7879,7 +8149,9 @@
       <c r="K137" t="s">
         <v>159</v>
       </c>
-      <c r="L137" s="0"/>
+      <c r="L137" t="s">
+        <v>162</v>
+      </c>
       <c r="M137" t="s">
         <v>160</v>
       </c>
@@ -7931,7 +8203,9 @@
       <c r="K138" t="s">
         <v>160</v>
       </c>
-      <c r="L138" s="0"/>
+      <c r="L138" t="s">
+        <v>162</v>
+      </c>
       <c r="M138" t="s">
         <v>160</v>
       </c>
@@ -7983,7 +8257,9 @@
       <c r="K139" t="s">
         <v>160</v>
       </c>
-      <c r="L139" s="0"/>
+      <c r="L139" t="s">
+        <v>162</v>
+      </c>
       <c r="M139" t="s">
         <v>160</v>
       </c>
@@ -8035,7 +8311,9 @@
       <c r="K140" t="s">
         <v>160</v>
       </c>
-      <c r="L140" s="0"/>
+      <c r="L140" t="s">
+        <v>162</v>
+      </c>
       <c r="M140" t="s">
         <v>160</v>
       </c>
@@ -8089,7 +8367,9 @@
       <c r="K141" t="s">
         <v>160</v>
       </c>
-      <c r="L141" s="0"/>
+      <c r="L141" t="s">
+        <v>162</v>
+      </c>
       <c r="M141" t="s">
         <v>160</v>
       </c>
@@ -8143,7 +8423,9 @@
       <c r="K142" t="s">
         <v>159</v>
       </c>
-      <c r="L142" s="0"/>
+      <c r="L142" t="s">
+        <v>162</v>
+      </c>
       <c r="M142" t="s">
         <v>160</v>
       </c>
@@ -8197,7 +8479,9 @@
       <c r="K143" t="s">
         <v>160</v>
       </c>
-      <c r="L143" s="0"/>
+      <c r="L143" t="s">
+        <v>162</v>
+      </c>
       <c r="M143" t="s">
         <v>160</v>
       </c>
@@ -8251,7 +8535,9 @@
       <c r="K144" t="s">
         <v>160</v>
       </c>
-      <c r="L144" s="0"/>
+      <c r="L144" t="s">
+        <v>162</v>
+      </c>
       <c r="M144" t="s">
         <v>160</v>
       </c>
@@ -8305,7 +8591,9 @@
       <c r="K145" t="s">
         <v>160</v>
       </c>
-      <c r="L145" s="0"/>
+      <c r="L145" t="s">
+        <v>162</v>
+      </c>
       <c r="M145" t="s">
         <v>159</v>
       </c>
@@ -8359,7 +8647,9 @@
       <c r="K146" t="s">
         <v>159</v>
       </c>
-      <c r="L146" s="0"/>
+      <c r="L146" t="s">
+        <v>162</v>
+      </c>
       <c r="M146" t="s">
         <v>160</v>
       </c>
@@ -8409,7 +8699,9 @@
       <c r="K147" t="s">
         <v>159</v>
       </c>
-      <c r="L147" s="0"/>
+      <c r="L147" t="s">
+        <v>162</v>
+      </c>
       <c r="M147" t="s">
         <v>159</v>
       </c>
@@ -8463,7 +8755,9 @@
       <c r="K148" t="s">
         <v>159</v>
       </c>
-      <c r="L148" s="0"/>
+      <c r="L148" t="s">
+        <v>162</v>
+      </c>
       <c r="M148" t="s">
         <v>160</v>
       </c>
@@ -8517,7 +8811,9 @@
       <c r="K149" t="s">
         <v>159</v>
       </c>
-      <c r="L149" s="0"/>
+      <c r="L149" t="s">
+        <v>162</v>
+      </c>
       <c r="M149" t="s">
         <v>160</v>
       </c>
@@ -8571,7 +8867,9 @@
       <c r="K150" t="s">
         <v>160</v>
       </c>
-      <c r="L150" s="0"/>
+      <c r="L150" t="s">
+        <v>162</v>
+      </c>
       <c r="M150" t="s">
         <v>160</v>
       </c>
@@ -8625,7 +8923,9 @@
       <c r="K151" t="s">
         <v>159</v>
       </c>
-      <c r="L151" s="0"/>
+      <c r="L151" t="s">
+        <v>162</v>
+      </c>
       <c r="M151" t="s">
         <v>160</v>
       </c>
@@ -8679,7 +8979,9 @@
       <c r="K152" t="s">
         <v>160</v>
       </c>
-      <c r="L152" s="0"/>
+      <c r="L152" t="s">
+        <v>162</v>
+      </c>
       <c r="M152" t="s">
         <v>160</v>
       </c>
@@ -8729,7 +9031,9 @@
       <c r="K153" t="s">
         <v>159</v>
       </c>
-      <c r="L153" s="0"/>
+      <c r="L153" t="s">
+        <v>162</v>
+      </c>
       <c r="M153" t="s">
         <v>159</v>
       </c>
@@ -8783,7 +9087,9 @@
       <c r="K154" t="s">
         <v>159</v>
       </c>
-      <c r="L154" s="0"/>
+      <c r="L154" t="s">
+        <v>162</v>
+      </c>
       <c r="M154" t="s">
         <v>160</v>
       </c>
@@ -8837,7 +9143,9 @@
       <c r="K155" t="s">
         <v>160</v>
       </c>
-      <c r="L155" s="0"/>
+      <c r="L155" t="s">
+        <v>162</v>
+      </c>
       <c r="M155" t="s">
         <v>160</v>
       </c>
@@ -8891,7 +9199,9 @@
       <c r="K156" t="s">
         <v>160</v>
       </c>
-      <c r="L156" s="0"/>
+      <c r="L156" t="s">
+        <v>162</v>
+      </c>
       <c r="M156" t="s">
         <v>160</v>
       </c>
@@ -8945,7 +9255,9 @@
       <c r="K157" t="s">
         <v>159</v>
       </c>
-      <c r="L157" s="0"/>
+      <c r="L157" t="s">
+        <v>162</v>
+      </c>
       <c r="M157" t="s">
         <v>159</v>
       </c>
@@ -8999,7 +9311,9 @@
       <c r="K158" t="s">
         <v>159</v>
       </c>
-      <c r="L158" s="0"/>
+      <c r="L158" t="s">
+        <v>162</v>
+      </c>
       <c r="M158" t="s">
         <v>160</v>
       </c>
@@ -9053,7 +9367,9 @@
       <c r="K159" t="s">
         <v>160</v>
       </c>
-      <c r="L159" s="0"/>
+      <c r="L159" t="s">
+        <v>162</v>
+      </c>
       <c r="M159" t="s">
         <v>160</v>
       </c>
@@ -9107,7 +9423,9 @@
       <c r="K160" t="s">
         <v>160</v>
       </c>
-      <c r="L160" s="0"/>
+      <c r="L160" t="s">
+        <v>162</v>
+      </c>
       <c r="M160" t="s">
         <v>160</v>
       </c>
@@ -9161,7 +9479,9 @@
       <c r="K161" t="s">
         <v>160</v>
       </c>
-      <c r="L161" s="0"/>
+      <c r="L161" t="s">
+        <v>162</v>
+      </c>
       <c r="M161" t="s">
         <v>160</v>
       </c>
@@ -9213,7 +9533,9 @@
       <c r="K162" t="s">
         <v>160</v>
       </c>
-      <c r="L162" s="0"/>
+      <c r="L162" t="s">
+        <v>162</v>
+      </c>
       <c r="M162" t="s">
         <v>160</v>
       </c>
@@ -9267,7 +9589,9 @@
       <c r="K163" t="s">
         <v>160</v>
       </c>
-      <c r="L163" s="0"/>
+      <c r="L163" t="s">
+        <v>162</v>
+      </c>
       <c r="M163" t="s">
         <v>160</v>
       </c>
@@ -9321,7 +9645,9 @@
       <c r="K164" t="s">
         <v>160</v>
       </c>
-      <c r="L164" s="0"/>
+      <c r="L164" t="s">
+        <v>162</v>
+      </c>
       <c r="M164" t="s">
         <v>160</v>
       </c>
@@ -9375,7 +9701,9 @@
       <c r="K165" t="s">
         <v>160</v>
       </c>
-      <c r="L165" s="0"/>
+      <c r="L165" t="s">
+        <v>162</v>
+      </c>
       <c r="M165" t="s">
         <v>160</v>
       </c>
@@ -9429,7 +9757,9 @@
       <c r="K166" t="s">
         <v>160</v>
       </c>
-      <c r="L166" s="0"/>
+      <c r="L166" t="s">
+        <v>162</v>
+      </c>
       <c r="M166" t="s">
         <v>160</v>
       </c>
@@ -9481,7 +9811,9 @@
       <c r="K167" t="s">
         <v>160</v>
       </c>
-      <c r="L167" s="0"/>
+      <c r="L167" t="s">
+        <v>162</v>
+      </c>
       <c r="M167" t="s">
         <v>160</v>
       </c>
@@ -9535,7 +9867,9 @@
       <c r="K168" t="s">
         <v>160</v>
       </c>
-      <c r="L168" s="0"/>
+      <c r="L168" t="s">
+        <v>162</v>
+      </c>
       <c r="M168" t="s">
         <v>160</v>
       </c>
@@ -9589,7 +9923,9 @@
       <c r="K169" t="s">
         <v>160</v>
       </c>
-      <c r="L169" s="0"/>
+      <c r="L169" t="s">
+        <v>162</v>
+      </c>
       <c r="M169" t="s">
         <v>160</v>
       </c>
@@ -9643,7 +9979,9 @@
       <c r="K170" t="s">
         <v>160</v>
       </c>
-      <c r="L170" s="0"/>
+      <c r="L170" t="s">
+        <v>162</v>
+      </c>
       <c r="M170" t="s">
         <v>160</v>
       </c>
@@ -9697,7 +10035,9 @@
       <c r="K171" t="s">
         <v>160</v>
       </c>
-      <c r="L171" s="0"/>
+      <c r="L171" t="s">
+        <v>162</v>
+      </c>
       <c r="M171" t="s">
         <v>160</v>
       </c>
@@ -9751,7 +10091,9 @@
       <c r="K172" t="s">
         <v>160</v>
       </c>
-      <c r="L172" s="0"/>
+      <c r="L172" t="s">
+        <v>162</v>
+      </c>
       <c r="M172" t="s">
         <v>160</v>
       </c>
@@ -9805,7 +10147,9 @@
       <c r="K173" t="s">
         <v>160</v>
       </c>
-      <c r="L173" s="0"/>
+      <c r="L173" t="s">
+        <v>162</v>
+      </c>
       <c r="M173" t="s">
         <v>160</v>
       </c>
@@ -9859,7 +10203,9 @@
       <c r="K174" t="s">
         <v>160</v>
       </c>
-      <c r="L174" s="0"/>
+      <c r="L174" t="s">
+        <v>162</v>
+      </c>
       <c r="M174" t="s">
         <v>159</v>
       </c>
@@ -9911,7 +10257,9 @@
       <c r="K175" t="s">
         <v>160</v>
       </c>
-      <c r="L175" s="0"/>
+      <c r="L175" t="s">
+        <v>162</v>
+      </c>
       <c r="M175" t="s">
         <v>160</v>
       </c>
@@ -9965,7 +10313,9 @@
       <c r="K176" t="s">
         <v>160</v>
       </c>
-      <c r="L176" s="0"/>
+      <c r="L176" t="s">
+        <v>162</v>
+      </c>
       <c r="M176" t="s">
         <v>160</v>
       </c>
@@ -10019,7 +10369,9 @@
       <c r="K177" t="s">
         <v>160</v>
       </c>
-      <c r="L177" s="0"/>
+      <c r="L177" t="s">
+        <v>162</v>
+      </c>
       <c r="M177" t="s">
         <v>160</v>
       </c>
@@ -10073,7 +10425,9 @@
       <c r="K178" t="s">
         <v>160</v>
       </c>
-      <c r="L178" s="0"/>
+      <c r="L178" t="s">
+        <v>162</v>
+      </c>
       <c r="M178" t="s">
         <v>160</v>
       </c>
@@ -10127,7 +10481,9 @@
       <c r="K179" t="s">
         <v>160</v>
       </c>
-      <c r="L179" s="0"/>
+      <c r="L179" t="s">
+        <v>162</v>
+      </c>
       <c r="M179" t="s">
         <v>159</v>
       </c>
@@ -10181,7 +10537,9 @@
       <c r="K180" t="s">
         <v>160</v>
       </c>
-      <c r="L180" s="0"/>
+      <c r="L180" t="s">
+        <v>162</v>
+      </c>
       <c r="M180" t="s">
         <v>160</v>
       </c>
@@ -10235,7 +10593,9 @@
       <c r="K181" t="s">
         <v>160</v>
       </c>
-      <c r="L181" s="0"/>
+      <c r="L181" t="s">
+        <v>162</v>
+      </c>
       <c r="M181" t="s">
         <v>160</v>
       </c>
@@ -10289,7 +10649,9 @@
       <c r="K182" t="s">
         <v>160</v>
       </c>
-      <c r="L182" s="0"/>
+      <c r="L182" t="s">
+        <v>162</v>
+      </c>
       <c r="M182" t="s">
         <v>160</v>
       </c>
@@ -10343,7 +10705,9 @@
       <c r="K183" t="s">
         <v>160</v>
       </c>
-      <c r="L183" s="0"/>
+      <c r="L183" t="s">
+        <v>162</v>
+      </c>
       <c r="M183" t="s">
         <v>160</v>
       </c>
@@ -10395,7 +10759,9 @@
       <c r="K184" t="s">
         <v>159</v>
       </c>
-      <c r="L184" s="0"/>
+      <c r="L184" t="s">
+        <v>162</v>
+      </c>
       <c r="M184" t="s">
         <v>160</v>
       </c>
@@ -10447,7 +10813,9 @@
       <c r="K185" t="s">
         <v>160</v>
       </c>
-      <c r="L185" s="0"/>
+      <c r="L185" t="s">
+        <v>162</v>
+      </c>
       <c r="M185" t="s">
         <v>160</v>
       </c>
@@ -10501,7 +10869,9 @@
       <c r="K186" t="s">
         <v>159</v>
       </c>
-      <c r="L186" s="0"/>
+      <c r="L186" t="s">
+        <v>162</v>
+      </c>
       <c r="M186" t="s">
         <v>159</v>
       </c>
@@ -10553,7 +10923,9 @@
       <c r="K187" t="s">
         <v>160</v>
       </c>
-      <c r="L187" s="0"/>
+      <c r="L187" t="s">
+        <v>162</v>
+      </c>
       <c r="M187" t="s">
         <v>160</v>
       </c>
@@ -10605,7 +10977,9 @@
       <c r="K188" t="s">
         <v>160</v>
       </c>
-      <c r="L188" s="0"/>
+      <c r="L188" t="s">
+        <v>162</v>
+      </c>
       <c r="M188" t="s">
         <v>160</v>
       </c>
@@ -10657,7 +11031,9 @@
       <c r="K189" t="s">
         <v>160</v>
       </c>
-      <c r="L189" s="0"/>
+      <c r="L189" t="s">
+        <v>162</v>
+      </c>
       <c r="M189" t="s">
         <v>160</v>
       </c>
@@ -10711,7 +11087,9 @@
       <c r="K190" t="s">
         <v>160</v>
       </c>
-      <c r="L190" s="0"/>
+      <c r="L190" t="s">
+        <v>162</v>
+      </c>
       <c r="M190" t="s">
         <v>160</v>
       </c>
@@ -10763,7 +11141,9 @@
       <c r="K191" t="s">
         <v>160</v>
       </c>
-      <c r="L191" s="0"/>
+      <c r="L191" t="s">
+        <v>162</v>
+      </c>
       <c r="M191" t="s">
         <v>160</v>
       </c>
@@ -10817,7 +11197,9 @@
       <c r="K192" t="s">
         <v>160</v>
       </c>
-      <c r="L192" s="0"/>
+      <c r="L192" t="s">
+        <v>162</v>
+      </c>
       <c r="M192" t="s">
         <v>160</v>
       </c>
@@ -10869,7 +11251,9 @@
       <c r="K193" t="s">
         <v>160</v>
       </c>
-      <c r="L193" s="0"/>
+      <c r="L193" t="s">
+        <v>162</v>
+      </c>
       <c r="M193" t="s">
         <v>160</v>
       </c>
@@ -10923,7 +11307,9 @@
       <c r="K194" t="s">
         <v>160</v>
       </c>
-      <c r="L194" s="0"/>
+      <c r="L194" t="s">
+        <v>162</v>
+      </c>
       <c r="M194" t="s">
         <v>160</v>
       </c>
@@ -10975,7 +11361,9 @@
       <c r="K195" t="s">
         <v>160</v>
       </c>
-      <c r="L195" s="0"/>
+      <c r="L195" t="s">
+        <v>162</v>
+      </c>
       <c r="M195" t="s">
         <v>159</v>
       </c>
@@ -11029,7 +11417,9 @@
       <c r="K196" t="s">
         <v>160</v>
       </c>
-      <c r="L196" s="0"/>
+      <c r="L196" t="s">
+        <v>162</v>
+      </c>
       <c r="M196" t="s">
         <v>160</v>
       </c>
@@ -11081,7 +11471,9 @@
       <c r="K197" t="s">
         <v>160</v>
       </c>
-      <c r="L197" s="0"/>
+      <c r="L197" t="s">
+        <v>162</v>
+      </c>
       <c r="M197" t="s">
         <v>159</v>
       </c>
@@ -11133,7 +11525,9 @@
       <c r="K198" t="s">
         <v>160</v>
       </c>
-      <c r="L198" s="0"/>
+      <c r="L198" t="s">
+        <v>162</v>
+      </c>
       <c r="M198" t="s">
         <v>160</v>
       </c>
@@ -11185,7 +11579,9 @@
       <c r="K199" t="s">
         <v>160</v>
       </c>
-      <c r="L199" s="0"/>
+      <c r="L199" t="s">
+        <v>162</v>
+      </c>
       <c r="M199" t="s">
         <v>160</v>
       </c>
@@ -11237,7 +11633,9 @@
       <c r="K200" t="s">
         <v>160</v>
       </c>
-      <c r="L200" s="0"/>
+      <c r="L200" t="s">
+        <v>162</v>
+      </c>
       <c r="M200" t="s">
         <v>160</v>
       </c>
@@ -11291,7 +11689,9 @@
       <c r="K201" t="s">
         <v>160</v>
       </c>
-      <c r="L201" s="0"/>
+      <c r="L201" t="s">
+        <v>162</v>
+      </c>
       <c r="M201" t="s">
         <v>160</v>
       </c>
@@ -11345,7 +11745,9 @@
       <c r="K202" t="s">
         <v>160</v>
       </c>
-      <c r="L202" s="0"/>
+      <c r="L202" t="s">
+        <v>162</v>
+      </c>
       <c r="M202" t="s">
         <v>160</v>
       </c>
@@ -11397,7 +11799,9 @@
       <c r="K203" t="s">
         <v>160</v>
       </c>
-      <c r="L203" s="0"/>
+      <c r="L203" t="s">
+        <v>162</v>
+      </c>
       <c r="M203" t="s">
         <v>160</v>
       </c>
@@ -11449,7 +11853,9 @@
       <c r="K204" t="s">
         <v>160</v>
       </c>
-      <c r="L204" s="0"/>
+      <c r="L204" t="s">
+        <v>162</v>
+      </c>
       <c r="M204" t="s">
         <v>160</v>
       </c>
@@ -11503,7 +11909,9 @@
       <c r="K205" t="s">
         <v>159</v>
       </c>
-      <c r="L205" s="0"/>
+      <c r="L205" t="s">
+        <v>162</v>
+      </c>
       <c r="M205" t="s">
         <v>160</v>
       </c>
@@ -11557,7 +11965,9 @@
       <c r="K206" t="s">
         <v>159</v>
       </c>
-      <c r="L206" s="0"/>
+      <c r="L206" t="s">
+        <v>162</v>
+      </c>
       <c r="M206" t="s">
         <v>160</v>
       </c>
@@ -11611,7 +12021,9 @@
       <c r="K207" t="s">
         <v>160</v>
       </c>
-      <c r="L207" s="0"/>
+      <c r="L207" t="s">
+        <v>162</v>
+      </c>
       <c r="M207" t="s">
         <v>160</v>
       </c>
@@ -11665,7 +12077,9 @@
       <c r="K208" t="s">
         <v>159</v>
       </c>
-      <c r="L208" s="0"/>
+      <c r="L208" t="s">
+        <v>162</v>
+      </c>
       <c r="M208" t="s">
         <v>160</v>
       </c>
@@ -11717,7 +12131,9 @@
       <c r="K209" t="s">
         <v>159</v>
       </c>
-      <c r="L209" s="0"/>
+      <c r="L209" t="s">
+        <v>162</v>
+      </c>
       <c r="M209" t="s">
         <v>160</v>
       </c>
@@ -11769,7 +12185,9 @@
       <c r="K210" t="s">
         <v>160</v>
       </c>
-      <c r="L210" s="0"/>
+      <c r="L210" t="s">
+        <v>162</v>
+      </c>
       <c r="M210" t="s">
         <v>159</v>
       </c>
@@ -11821,7 +12239,9 @@
       <c r="K211" t="s">
         <v>160</v>
       </c>
-      <c r="L211" s="0"/>
+      <c r="L211" t="s">
+        <v>162</v>
+      </c>
       <c r="M211" t="s">
         <v>160</v>
       </c>
@@ -11873,7 +12293,9 @@
       <c r="K212" t="s">
         <v>160</v>
       </c>
-      <c r="L212" s="0"/>
+      <c r="L212" t="s">
+        <v>162</v>
+      </c>
       <c r="M212" t="s">
         <v>160</v>
       </c>
@@ -11927,7 +12349,9 @@
       <c r="K213" t="s">
         <v>160</v>
       </c>
-      <c r="L213" s="0"/>
+      <c r="L213" t="s">
+        <v>162</v>
+      </c>
       <c r="M213" t="s">
         <v>159</v>
       </c>
@@ -11981,7 +12405,9 @@
       <c r="K214" t="s">
         <v>159</v>
       </c>
-      <c r="L214" s="0"/>
+      <c r="L214" t="s">
+        <v>162</v>
+      </c>
       <c r="M214" t="s">
         <v>160</v>
       </c>
@@ -12035,7 +12461,9 @@
       <c r="K215" t="s">
         <v>160</v>
       </c>
-      <c r="L215" s="0"/>
+      <c r="L215" t="s">
+        <v>162</v>
+      </c>
       <c r="M215" t="s">
         <v>160</v>
       </c>
@@ -12089,7 +12517,9 @@
       <c r="K216" t="s">
         <v>160</v>
       </c>
-      <c r="L216" s="0"/>
+      <c r="L216" t="s">
+        <v>162</v>
+      </c>
       <c r="M216" t="s">
         <v>160</v>
       </c>
@@ -12143,7 +12573,9 @@
       <c r="K217" t="s">
         <v>160</v>
       </c>
-      <c r="L217" s="0"/>
+      <c r="L217" t="s">
+        <v>162</v>
+      </c>
       <c r="M217" t="s">
         <v>159</v>
       </c>
@@ -12197,7 +12629,9 @@
       <c r="K218" t="s">
         <v>159</v>
       </c>
-      <c r="L218" s="0"/>
+      <c r="L218" t="s">
+        <v>162</v>
+      </c>
       <c r="M218" t="s">
         <v>160</v>
       </c>
@@ -12247,7 +12681,9 @@
       <c r="K219" t="s">
         <v>159</v>
       </c>
-      <c r="L219" s="0"/>
+      <c r="L219" t="s">
+        <v>162</v>
+      </c>
       <c r="M219" t="s">
         <v>159</v>
       </c>
@@ -12301,7 +12737,9 @@
       <c r="K220" t="s">
         <v>159</v>
       </c>
-      <c r="L220" s="0"/>
+      <c r="L220" t="s">
+        <v>162</v>
+      </c>
       <c r="M220" t="s">
         <v>160</v>
       </c>
@@ -12355,7 +12793,9 @@
       <c r="K221" t="s">
         <v>159</v>
       </c>
-      <c r="L221" s="0"/>
+      <c r="L221" t="s">
+        <v>162</v>
+      </c>
       <c r="M221" t="s">
         <v>160</v>
       </c>
@@ -12409,7 +12849,9 @@
       <c r="K222" t="s">
         <v>160</v>
       </c>
-      <c r="L222" s="0"/>
+      <c r="L222" t="s">
+        <v>162</v>
+      </c>
       <c r="M222" t="s">
         <v>160</v>
       </c>
@@ -12463,7 +12905,9 @@
       <c r="K223" t="s">
         <v>159</v>
       </c>
-      <c r="L223" s="0"/>
+      <c r="L223" t="s">
+        <v>162</v>
+      </c>
       <c r="M223" t="s">
         <v>160</v>
       </c>
@@ -12517,7 +12961,9 @@
       <c r="K224" t="s">
         <v>160</v>
       </c>
-      <c r="L224" s="0"/>
+      <c r="L224" t="s">
+        <v>162</v>
+      </c>
       <c r="M224" t="s">
         <v>160</v>
       </c>
@@ -12567,7 +13013,9 @@
       <c r="K225" t="s">
         <v>159</v>
       </c>
-      <c r="L225" s="0"/>
+      <c r="L225" t="s">
+        <v>162</v>
+      </c>
       <c r="M225" t="s">
         <v>159</v>
       </c>
@@ -12621,7 +13069,9 @@
       <c r="K226" t="s">
         <v>159</v>
       </c>
-      <c r="L226" s="0"/>
+      <c r="L226" t="s">
+        <v>162</v>
+      </c>
       <c r="M226" t="s">
         <v>160</v>
       </c>
@@ -12675,7 +13125,9 @@
       <c r="K227" t="s">
         <v>160</v>
       </c>
-      <c r="L227" s="0"/>
+      <c r="L227" t="s">
+        <v>162</v>
+      </c>
       <c r="M227" t="s">
         <v>160</v>
       </c>
@@ -12729,7 +13181,9 @@
       <c r="K228" t="s">
         <v>160</v>
       </c>
-      <c r="L228" s="0"/>
+      <c r="L228" t="s">
+        <v>162</v>
+      </c>
       <c r="M228" t="s">
         <v>160</v>
       </c>
@@ -12783,7 +13237,9 @@
       <c r="K229" t="s">
         <v>159</v>
       </c>
-      <c r="L229" s="0"/>
+      <c r="L229" t="s">
+        <v>162</v>
+      </c>
       <c r="M229" t="s">
         <v>160</v>
       </c>
@@ -12837,7 +13293,9 @@
       <c r="K230" t="s">
         <v>159</v>
       </c>
-      <c r="L230" s="0"/>
+      <c r="L230" t="s">
+        <v>162</v>
+      </c>
       <c r="M230" t="s">
         <v>160</v>
       </c>
@@ -12891,7 +13349,9 @@
       <c r="K231" t="s">
         <v>160</v>
       </c>
-      <c r="L231" s="0"/>
+      <c r="L231" t="s">
+        <v>162</v>
+      </c>
       <c r="M231" t="s">
         <v>160</v>
       </c>
@@ -12945,7 +13405,9 @@
       <c r="K232" t="s">
         <v>160</v>
       </c>
-      <c r="L232" s="0"/>
+      <c r="L232" t="s">
+        <v>162</v>
+      </c>
       <c r="M232" t="s">
         <v>160</v>
       </c>
@@ -12999,7 +13461,9 @@
       <c r="K233" t="s">
         <v>160</v>
       </c>
-      <c r="L233" s="0"/>
+      <c r="L233" t="s">
+        <v>162</v>
+      </c>
       <c r="M233" t="s">
         <v>160</v>
       </c>
@@ -13051,7 +13515,9 @@
       <c r="K234" t="s">
         <v>160</v>
       </c>
-      <c r="L234" s="0"/>
+      <c r="L234" t="s">
+        <v>162</v>
+      </c>
       <c r="M234" t="s">
         <v>159</v>
       </c>
@@ -13105,7 +13571,9 @@
       <c r="K235" t="s">
         <v>160</v>
       </c>
-      <c r="L235" s="0"/>
+      <c r="L235" t="s">
+        <v>162</v>
+      </c>
       <c r="M235" t="s">
         <v>160</v>
       </c>
@@ -13159,7 +13627,9 @@
       <c r="K236" t="s">
         <v>160</v>
       </c>
-      <c r="L236" s="0"/>
+      <c r="L236" t="s">
+        <v>162</v>
+      </c>
       <c r="M236" t="s">
         <v>160</v>
       </c>
@@ -13213,7 +13683,9 @@
       <c r="K237" t="s">
         <v>160</v>
       </c>
-      <c r="L237" s="0"/>
+      <c r="L237" t="s">
+        <v>162</v>
+      </c>
       <c r="M237" t="s">
         <v>160</v>
       </c>
@@ -13267,7 +13739,9 @@
       <c r="K238" t="s">
         <v>160</v>
       </c>
-      <c r="L238" s="0"/>
+      <c r="L238" t="s">
+        <v>162</v>
+      </c>
       <c r="M238" t="s">
         <v>160</v>
       </c>
@@ -13319,7 +13793,9 @@
       <c r="K239" t="s">
         <v>160</v>
       </c>
-      <c r="L239" s="0"/>
+      <c r="L239" t="s">
+        <v>162</v>
+      </c>
       <c r="M239" t="s">
         <v>160</v>
       </c>
@@ -13373,7 +13849,9 @@
       <c r="K240" t="s">
         <v>160</v>
       </c>
-      <c r="L240" s="0"/>
+      <c r="L240" t="s">
+        <v>162</v>
+      </c>
       <c r="M240" t="s">
         <v>159</v>
       </c>
@@ -13427,7 +13905,9 @@
       <c r="K241" t="s">
         <v>160</v>
       </c>
-      <c r="L241" s="0"/>
+      <c r="L241" t="s">
+        <v>162</v>
+      </c>
       <c r="M241" t="s">
         <v>160</v>
       </c>
@@ -13481,7 +13961,9 @@
       <c r="K242" t="s">
         <v>160</v>
       </c>
-      <c r="L242" s="0"/>
+      <c r="L242" t="s">
+        <v>162</v>
+      </c>
       <c r="M242" t="s">
         <v>160</v>
       </c>
@@ -13535,7 +14017,9 @@
       <c r="K243" t="s">
         <v>160</v>
       </c>
-      <c r="L243" s="0"/>
+      <c r="L243" t="s">
+        <v>162</v>
+      </c>
       <c r="M243" t="s">
         <v>160</v>
       </c>
@@ -13589,7 +14073,9 @@
       <c r="K244" t="s">
         <v>160</v>
       </c>
-      <c r="L244" s="0"/>
+      <c r="L244" t="s">
+        <v>162</v>
+      </c>
       <c r="M244" t="s">
         <v>160</v>
       </c>
@@ -13643,7 +14129,9 @@
       <c r="K245" t="s">
         <v>160</v>
       </c>
-      <c r="L245" s="0"/>
+      <c r="L245" t="s">
+        <v>162</v>
+      </c>
       <c r="M245" t="s">
         <v>159</v>
       </c>
@@ -13697,7 +14185,9 @@
       <c r="K246" t="s">
         <v>160</v>
       </c>
-      <c r="L246" s="0"/>
+      <c r="L246" t="s">
+        <v>162</v>
+      </c>
       <c r="M246" t="s">
         <v>159</v>
       </c>
@@ -13749,7 +14239,9 @@
       <c r="K247" t="s">
         <v>160</v>
       </c>
-      <c r="L247" s="0"/>
+      <c r="L247" t="s">
+        <v>162</v>
+      </c>
       <c r="M247" t="s">
         <v>160</v>
       </c>
@@ -13803,7 +14295,9 @@
       <c r="K248" t="s">
         <v>160</v>
       </c>
-      <c r="L248" s="0"/>
+      <c r="L248" t="s">
+        <v>162</v>
+      </c>
       <c r="M248" t="s">
         <v>160</v>
       </c>
@@ -13857,7 +14351,9 @@
       <c r="K249" t="s">
         <v>160</v>
       </c>
-      <c r="L249" s="0"/>
+      <c r="L249" t="s">
+        <v>162</v>
+      </c>
       <c r="M249" t="s">
         <v>160</v>
       </c>
@@ -13911,7 +14407,9 @@
       <c r="K250" t="s">
         <v>160</v>
       </c>
-      <c r="L250" s="0"/>
+      <c r="L250" t="s">
+        <v>162</v>
+      </c>
       <c r="M250" t="s">
         <v>160</v>
       </c>
@@ -13965,7 +14463,9 @@
       <c r="K251" t="s">
         <v>160</v>
       </c>
-      <c r="L251" s="0"/>
+      <c r="L251" t="s">
+        <v>162</v>
+      </c>
       <c r="M251" t="s">
         <v>159</v>
       </c>
@@ -14019,7 +14519,9 @@
       <c r="K252" t="s">
         <v>160</v>
       </c>
-      <c r="L252" s="0"/>
+      <c r="L252" t="s">
+        <v>162</v>
+      </c>
       <c r="M252" t="s">
         <v>160</v>
       </c>
@@ -14073,7 +14575,9 @@
       <c r="K253" t="s">
         <v>160</v>
       </c>
-      <c r="L253" s="0"/>
+      <c r="L253" t="s">
+        <v>162</v>
+      </c>
       <c r="M253" t="s">
         <v>160</v>
       </c>
@@ -14127,7 +14631,9 @@
       <c r="K254" t="s">
         <v>160</v>
       </c>
-      <c r="L254" s="0"/>
+      <c r="L254" t="s">
+        <v>162</v>
+      </c>
       <c r="M254" t="s">
         <v>159</v>
       </c>
@@ -14181,7 +14687,9 @@
       <c r="K255" t="s">
         <v>160</v>
       </c>
-      <c r="L255" s="0"/>
+      <c r="L255" t="s">
+        <v>162</v>
+      </c>
       <c r="M255" t="s">
         <v>160</v>
       </c>
@@ -14233,7 +14741,9 @@
       <c r="K256" t="s">
         <v>159</v>
       </c>
-      <c r="L256" s="0"/>
+      <c r="L256" t="s">
+        <v>162</v>
+      </c>
       <c r="M256" t="s">
         <v>160</v>
       </c>
@@ -14285,7 +14795,9 @@
       <c r="K257" t="s">
         <v>160</v>
       </c>
-      <c r="L257" s="0"/>
+      <c r="L257" t="s">
+        <v>162</v>
+      </c>
       <c r="M257" t="s">
         <v>160</v>
       </c>
@@ -14339,7 +14851,9 @@
       <c r="K258" t="s">
         <v>159</v>
       </c>
-      <c r="L258" s="0"/>
+      <c r="L258" t="s">
+        <v>162</v>
+      </c>
       <c r="M258" t="s">
         <v>160</v>
       </c>
@@ -14391,7 +14905,9 @@
       <c r="K259" t="s">
         <v>160</v>
       </c>
-      <c r="L259" s="0"/>
+      <c r="L259" t="s">
+        <v>162</v>
+      </c>
       <c r="M259" t="s">
         <v>160</v>
       </c>
@@ -14443,7 +14959,9 @@
       <c r="K260" t="s">
         <v>160</v>
       </c>
-      <c r="L260" s="0"/>
+      <c r="L260" t="s">
+        <v>162</v>
+      </c>
       <c r="M260" t="s">
         <v>160</v>
       </c>
@@ -14495,7 +15013,9 @@
       <c r="K261" t="s">
         <v>160</v>
       </c>
-      <c r="L261" s="0"/>
+      <c r="L261" t="s">
+        <v>162</v>
+      </c>
       <c r="M261" t="s">
         <v>160</v>
       </c>
@@ -14549,7 +15069,9 @@
       <c r="K262" t="s">
         <v>160</v>
       </c>
-      <c r="L262" s="0"/>
+      <c r="L262" t="s">
+        <v>162</v>
+      </c>
       <c r="M262" t="s">
         <v>160</v>
       </c>
@@ -14601,7 +15123,9 @@
       <c r="K263" t="s">
         <v>160</v>
       </c>
-      <c r="L263" s="0"/>
+      <c r="L263" t="s">
+        <v>162</v>
+      </c>
       <c r="M263" t="s">
         <v>160</v>
       </c>
@@ -14655,7 +15179,9 @@
       <c r="K264" t="s">
         <v>160</v>
       </c>
-      <c r="L264" s="0"/>
+      <c r="L264" t="s">
+        <v>162</v>
+      </c>
       <c r="M264" t="s">
         <v>160</v>
       </c>
@@ -14707,7 +15233,9 @@
       <c r="K265" t="s">
         <v>160</v>
       </c>
-      <c r="L265" s="0"/>
+      <c r="L265" t="s">
+        <v>162</v>
+      </c>
       <c r="M265" t="s">
         <v>160</v>
       </c>
@@ -14761,7 +15289,9 @@
       <c r="K266" t="s">
         <v>160</v>
       </c>
-      <c r="L266" s="0"/>
+      <c r="L266" t="s">
+        <v>162</v>
+      </c>
       <c r="M266" t="s">
         <v>160</v>
       </c>
@@ -14813,7 +15343,9 @@
       <c r="K267" t="s">
         <v>160</v>
       </c>
-      <c r="L267" s="0"/>
+      <c r="L267" t="s">
+        <v>162</v>
+      </c>
       <c r="M267" t="s">
         <v>162</v>
       </c>
@@ -14867,7 +15399,9 @@
       <c r="K268" t="s">
         <v>160</v>
       </c>
-      <c r="L268" s="0"/>
+      <c r="L268" t="s">
+        <v>162</v>
+      </c>
       <c r="M268" t="s">
         <v>160</v>
       </c>
@@ -14919,7 +15453,9 @@
       <c r="K269" t="s">
         <v>160</v>
       </c>
-      <c r="L269" s="0"/>
+      <c r="L269" t="s">
+        <v>162</v>
+      </c>
       <c r="M269" t="s">
         <v>162</v>
       </c>
@@ -14971,7 +15507,9 @@
       <c r="K270" t="s">
         <v>160</v>
       </c>
-      <c r="L270" s="0"/>
+      <c r="L270" t="s">
+        <v>162</v>
+      </c>
       <c r="M270" t="s">
         <v>160</v>
       </c>
@@ -15023,7 +15561,9 @@
       <c r="K271" t="s">
         <v>160</v>
       </c>
-      <c r="L271" s="0"/>
+      <c r="L271" t="s">
+        <v>162</v>
+      </c>
       <c r="M271" t="s">
         <v>160</v>
       </c>
@@ -15075,7 +15615,9 @@
       <c r="K272" t="s">
         <v>160</v>
       </c>
-      <c r="L272" s="0"/>
+      <c r="L272" t="s">
+        <v>162</v>
+      </c>
       <c r="M272" t="s">
         <v>160</v>
       </c>
@@ -15129,7 +15671,9 @@
       <c r="K273" t="s">
         <v>160</v>
       </c>
-      <c r="L273" s="0"/>
+      <c r="L273" t="s">
+        <v>162</v>
+      </c>
       <c r="M273" t="s">
         <v>160</v>
       </c>
@@ -15183,7 +15727,9 @@
       <c r="K274" t="s">
         <v>160</v>
       </c>
-      <c r="L274" s="0"/>
+      <c r="L274" t="s">
+        <v>162</v>
+      </c>
       <c r="M274" t="s">
         <v>160</v>
       </c>
@@ -15235,7 +15781,9 @@
       <c r="K275" t="s">
         <v>160</v>
       </c>
-      <c r="L275" s="0"/>
+      <c r="L275" t="s">
+        <v>162</v>
+      </c>
       <c r="M275" t="s">
         <v>160</v>
       </c>
@@ -15287,7 +15835,9 @@
       <c r="K276" t="s">
         <v>160</v>
       </c>
-      <c r="L276" s="0"/>
+      <c r="L276" t="s">
+        <v>162</v>
+      </c>
       <c r="M276" t="s">
         <v>160</v>
       </c>
@@ -15341,7 +15891,9 @@
       <c r="K277" t="s">
         <v>159</v>
       </c>
-      <c r="L277" s="0"/>
+      <c r="L277" t="s">
+        <v>162</v>
+      </c>
       <c r="M277" t="s">
         <v>160</v>
       </c>
@@ -15395,7 +15947,9 @@
       <c r="K278" t="s">
         <v>159</v>
       </c>
-      <c r="L278" s="0"/>
+      <c r="L278" t="s">
+        <v>162</v>
+      </c>
       <c r="M278" t="s">
         <v>160</v>
       </c>
@@ -15449,7 +16003,9 @@
       <c r="K279" t="s">
         <v>160</v>
       </c>
-      <c r="L279" s="0"/>
+      <c r="L279" t="s">
+        <v>162</v>
+      </c>
       <c r="M279" t="s">
         <v>160</v>
       </c>
@@ -15503,7 +16059,9 @@
       <c r="K280" t="s">
         <v>159</v>
       </c>
-      <c r="L280" s="0"/>
+      <c r="L280" t="s">
+        <v>162</v>
+      </c>
       <c r="M280" t="s">
         <v>160</v>
       </c>
@@ -15555,7 +16113,9 @@
       <c r="K281" t="s">
         <v>159</v>
       </c>
-      <c r="L281" s="0"/>
+      <c r="L281" t="s">
+        <v>162</v>
+      </c>
       <c r="M281" t="s">
         <v>160</v>
       </c>
@@ -15607,7 +16167,9 @@
       <c r="K282" t="s">
         <v>160</v>
       </c>
-      <c r="L282" s="0"/>
+      <c r="L282" t="s">
+        <v>162</v>
+      </c>
       <c r="M282" t="s">
         <v>160</v>
       </c>
@@ -15659,7 +16221,9 @@
       <c r="K283" t="s">
         <v>160</v>
       </c>
-      <c r="L283" s="0"/>
+      <c r="L283" t="s">
+        <v>162</v>
+      </c>
       <c r="M283" t="s">
         <v>160</v>
       </c>
@@ -15711,7 +16275,9 @@
       <c r="K284" t="s">
         <v>160</v>
       </c>
-      <c r="L284" s="0"/>
+      <c r="L284" t="s">
+        <v>162</v>
+      </c>
       <c r="M284" t="s">
         <v>160</v>
       </c>
@@ -15765,7 +16331,9 @@
       <c r="K285" t="s">
         <v>160</v>
       </c>
-      <c r="L285" s="0"/>
+      <c r="L285" t="s">
+        <v>162</v>
+      </c>
       <c r="M285" t="s">
         <v>159</v>
       </c>
@@ -15819,7 +16387,9 @@
       <c r="K286" t="s">
         <v>159</v>
       </c>
-      <c r="L286" s="0"/>
+      <c r="L286" t="s">
+        <v>162</v>
+      </c>
       <c r="M286" t="s">
         <v>160</v>
       </c>
@@ -15873,7 +16443,9 @@
       <c r="K287" t="s">
         <v>160</v>
       </c>
-      <c r="L287" s="0"/>
+      <c r="L287" t="s">
+        <v>162</v>
+      </c>
       <c r="M287" t="s">
         <v>160</v>
       </c>
@@ -15927,7 +16499,9 @@
       <c r="K288" t="s">
         <v>160</v>
       </c>
-      <c r="L288" s="0"/>
+      <c r="L288" t="s">
+        <v>162</v>
+      </c>
       <c r="M288" t="s">
         <v>160</v>
       </c>
@@ -15981,7 +16555,9 @@
       <c r="K289" t="s">
         <v>160</v>
       </c>
-      <c r="L289" s="0"/>
+      <c r="L289" t="s">
+        <v>162</v>
+      </c>
       <c r="M289" t="s">
         <v>160</v>
       </c>
@@ -16035,7 +16611,9 @@
       <c r="K290" t="s">
         <v>159</v>
       </c>
-      <c r="L290" s="0"/>
+      <c r="L290" t="s">
+        <v>162</v>
+      </c>
       <c r="M290" t="s">
         <v>160</v>
       </c>
@@ -16085,7 +16663,9 @@
       <c r="K291" t="s">
         <v>159</v>
       </c>
-      <c r="L291" s="0"/>
+      <c r="L291" t="s">
+        <v>162</v>
+      </c>
       <c r="M291" t="s">
         <v>159</v>
       </c>
@@ -16139,7 +16719,9 @@
       <c r="K292" t="s">
         <v>159</v>
       </c>
-      <c r="L292" s="0"/>
+      <c r="L292" t="s">
+        <v>162</v>
+      </c>
       <c r="M292" t="s">
         <v>160</v>
       </c>
@@ -16193,7 +16775,9 @@
       <c r="K293" t="s">
         <v>159</v>
       </c>
-      <c r="L293" s="0"/>
+      <c r="L293" t="s">
+        <v>162</v>
+      </c>
       <c r="M293" t="s">
         <v>159</v>
       </c>
@@ -16247,7 +16831,9 @@
       <c r="K294" t="s">
         <v>160</v>
       </c>
-      <c r="L294" s="0"/>
+      <c r="L294" t="s">
+        <v>162</v>
+      </c>
       <c r="M294" t="s">
         <v>160</v>
       </c>
@@ -16301,7 +16887,9 @@
       <c r="K295" t="s">
         <v>159</v>
       </c>
-      <c r="L295" s="0"/>
+      <c r="L295" t="s">
+        <v>162</v>
+      </c>
       <c r="M295" t="s">
         <v>160</v>
       </c>
@@ -16355,7 +16943,9 @@
       <c r="K296" t="s">
         <v>160</v>
       </c>
-      <c r="L296" s="0"/>
+      <c r="L296" t="s">
+        <v>162</v>
+      </c>
       <c r="M296" t="s">
         <v>160</v>
       </c>
@@ -16405,7 +16995,9 @@
       <c r="K297" t="s">
         <v>159</v>
       </c>
-      <c r="L297" s="0"/>
+      <c r="L297" t="s">
+        <v>162</v>
+      </c>
       <c r="M297" t="s">
         <v>159</v>
       </c>
@@ -16459,7 +17051,9 @@
       <c r="K298" t="s">
         <v>159</v>
       </c>
-      <c r="L298" s="0"/>
+      <c r="L298" t="s">
+        <v>162</v>
+      </c>
       <c r="M298" t="s">
         <v>160</v>
       </c>
@@ -16513,7 +17107,9 @@
       <c r="K299" t="s">
         <v>160</v>
       </c>
-      <c r="L299" s="0"/>
+      <c r="L299" t="s">
+        <v>162</v>
+      </c>
       <c r="M299" t="s">
         <v>160</v>
       </c>
@@ -16567,7 +17163,9 @@
       <c r="K300" t="s">
         <v>160</v>
       </c>
-      <c r="L300" s="0"/>
+      <c r="L300" t="s">
+        <v>162</v>
+      </c>
       <c r="M300" t="s">
         <v>159</v>
       </c>
@@ -16621,7 +17219,9 @@
       <c r="K301" t="s">
         <v>159</v>
       </c>
-      <c r="L301" s="0"/>
+      <c r="L301" t="s">
+        <v>162</v>
+      </c>
       <c r="M301" t="s">
         <v>160</v>
       </c>
@@ -16675,7 +17275,9 @@
       <c r="K302" t="s">
         <v>159</v>
       </c>
-      <c r="L302" s="0"/>
+      <c r="L302" t="s">
+        <v>162</v>
+      </c>
       <c r="M302" t="s">
         <v>160</v>
       </c>
@@ -16729,7 +17331,9 @@
       <c r="K303" t="s">
         <v>160</v>
       </c>
-      <c r="L303" s="0"/>
+      <c r="L303" t="s">
+        <v>162</v>
+      </c>
       <c r="M303" t="s">
         <v>160</v>
       </c>
@@ -16783,7 +17387,9 @@
       <c r="K304" t="s">
         <v>160</v>
       </c>
-      <c r="L304" s="0"/>
+      <c r="L304" t="s">
+        <v>162</v>
+      </c>
       <c r="M304" t="s">
         <v>160</v>
       </c>
@@ -16837,7 +17443,9 @@
       <c r="K305" t="s">
         <v>160</v>
       </c>
-      <c r="L305" s="0"/>
+      <c r="L305" t="s">
+        <v>162</v>
+      </c>
       <c r="M305" t="s">
         <v>160</v>
       </c>
@@ -16889,7 +17497,9 @@
       <c r="K306" t="s">
         <v>160</v>
       </c>
-      <c r="L306" s="0"/>
+      <c r="L306" t="s">
+        <v>162</v>
+      </c>
       <c r="M306" t="s">
         <v>160</v>
       </c>
@@ -16943,7 +17553,9 @@
       <c r="K307" t="s">
         <v>160</v>
       </c>
-      <c r="L307" s="0"/>
+      <c r="L307" t="s">
+        <v>162</v>
+      </c>
       <c r="M307" t="s">
         <v>160</v>
       </c>
@@ -16997,7 +17609,9 @@
       <c r="K308" t="s">
         <v>160</v>
       </c>
-      <c r="L308" s="0"/>
+      <c r="L308" t="s">
+        <v>162</v>
+      </c>
       <c r="M308" t="s">
         <v>160</v>
       </c>
@@ -17051,7 +17665,9 @@
       <c r="K309" t="s">
         <v>160</v>
       </c>
-      <c r="L309" s="0"/>
+      <c r="L309" t="s">
+        <v>162</v>
+      </c>
       <c r="M309" t="s">
         <v>160</v>
       </c>
@@ -17105,7 +17721,9 @@
       <c r="K310" t="s">
         <v>160</v>
       </c>
-      <c r="L310" s="0"/>
+      <c r="L310" t="s">
+        <v>162</v>
+      </c>
       <c r="M310" t="s">
         <v>160</v>
       </c>
@@ -17157,7 +17775,9 @@
       <c r="K311" t="s">
         <v>160</v>
       </c>
-      <c r="L311" s="0"/>
+      <c r="L311" t="s">
+        <v>162</v>
+      </c>
       <c r="M311" t="s">
         <v>160</v>
       </c>
@@ -17211,7 +17831,9 @@
       <c r="K312" t="s">
         <v>160</v>
       </c>
-      <c r="L312" s="0"/>
+      <c r="L312" t="s">
+        <v>162</v>
+      </c>
       <c r="M312" t="s">
         <v>160</v>
       </c>
@@ -17265,7 +17887,9 @@
       <c r="K313" t="s">
         <v>160</v>
       </c>
-      <c r="L313" s="0"/>
+      <c r="L313" t="s">
+        <v>162</v>
+      </c>
       <c r="M313" t="s">
         <v>160</v>
       </c>
@@ -17319,7 +17943,9 @@
       <c r="K314" t="s">
         <v>160</v>
       </c>
-      <c r="L314" s="0"/>
+      <c r="L314" t="s">
+        <v>162</v>
+      </c>
       <c r="M314" t="s">
         <v>160</v>
       </c>
@@ -17373,7 +17999,9 @@
       <c r="K315" t="s">
         <v>160</v>
       </c>
-      <c r="L315" s="0"/>
+      <c r="L315" t="s">
+        <v>162</v>
+      </c>
       <c r="M315" t="s">
         <v>160</v>
       </c>
@@ -17427,7 +18055,9 @@
       <c r="K316" t="s">
         <v>160</v>
       </c>
-      <c r="L316" s="0"/>
+      <c r="L316" t="s">
+        <v>162</v>
+      </c>
       <c r="M316" t="s">
         <v>159</v>
       </c>
@@ -17481,7 +18111,9 @@
       <c r="K317" t="s">
         <v>160</v>
       </c>
-      <c r="L317" s="0"/>
+      <c r="L317" t="s">
+        <v>162</v>
+      </c>
       <c r="M317" t="s">
         <v>160</v>
       </c>
@@ -17535,7 +18167,9 @@
       <c r="K318" t="s">
         <v>160</v>
       </c>
-      <c r="L318" s="0"/>
+      <c r="L318" t="s">
+        <v>162</v>
+      </c>
       <c r="M318" t="s">
         <v>159</v>
       </c>
@@ -17587,7 +18221,9 @@
       <c r="K319" t="s">
         <v>160</v>
       </c>
-      <c r="L319" s="0"/>
+      <c r="L319" t="s">
+        <v>162</v>
+      </c>
       <c r="M319" t="s">
         <v>159</v>
       </c>
@@ -17641,7 +18277,9 @@
       <c r="K320" t="s">
         <v>160</v>
       </c>
-      <c r="L320" s="0"/>
+      <c r="L320" t="s">
+        <v>162</v>
+      </c>
       <c r="M320" t="s">
         <v>159</v>
       </c>
@@ -17695,7 +18333,9 @@
       <c r="K321" t="s">
         <v>160</v>
       </c>
-      <c r="L321" s="0"/>
+      <c r="L321" t="s">
+        <v>162</v>
+      </c>
       <c r="M321" t="s">
         <v>160</v>
       </c>
@@ -17749,7 +18389,9 @@
       <c r="K322" t="s">
         <v>160</v>
       </c>
-      <c r="L322" s="0"/>
+      <c r="L322" t="s">
+        <v>162</v>
+      </c>
       <c r="M322" t="s">
         <v>160</v>
       </c>
@@ -17803,7 +18445,9 @@
       <c r="K323" t="s">
         <v>160</v>
       </c>
-      <c r="L323" s="0"/>
+      <c r="L323" t="s">
+        <v>162</v>
+      </c>
       <c r="M323" t="s">
         <v>160</v>
       </c>
@@ -17857,7 +18501,9 @@
       <c r="K324" t="s">
         <v>160</v>
       </c>
-      <c r="L324" s="0"/>
+      <c r="L324" t="s">
+        <v>162</v>
+      </c>
       <c r="M324" t="s">
         <v>160</v>
       </c>
@@ -17911,7 +18557,9 @@
       <c r="K325" t="s">
         <v>160</v>
       </c>
-      <c r="L325" s="0"/>
+      <c r="L325" t="s">
+        <v>162</v>
+      </c>
       <c r="M325" t="s">
         <v>160</v>
       </c>
@@ -17965,7 +18613,9 @@
       <c r="K326" t="s">
         <v>160</v>
       </c>
-      <c r="L326" s="0"/>
+      <c r="L326" t="s">
+        <v>162</v>
+      </c>
       <c r="M326" t="s">
         <v>160</v>
       </c>
@@ -18019,7 +18669,9 @@
       <c r="K327" t="s">
         <v>160</v>
       </c>
-      <c r="L327" s="0"/>
+      <c r="L327" t="s">
+        <v>162</v>
+      </c>
       <c r="M327" t="s">
         <v>160</v>
       </c>
@@ -18071,7 +18723,9 @@
       <c r="K328" t="s">
         <v>159</v>
       </c>
-      <c r="L328" s="0"/>
+      <c r="L328" t="s">
+        <v>162</v>
+      </c>
       <c r="M328" t="s">
         <v>159</v>
       </c>
@@ -18123,7 +18777,9 @@
       <c r="K329" t="s">
         <v>160</v>
       </c>
-      <c r="L329" s="0"/>
+      <c r="L329" t="s">
+        <v>162</v>
+      </c>
       <c r="M329" t="s">
         <v>160</v>
       </c>
@@ -18177,7 +18833,9 @@
       <c r="K330" t="s">
         <v>159</v>
       </c>
-      <c r="L330" s="0"/>
+      <c r="L330" t="s">
+        <v>162</v>
+      </c>
       <c r="M330" t="s">
         <v>160</v>
       </c>
@@ -18229,7 +18887,9 @@
       <c r="K331" t="s">
         <v>160</v>
       </c>
-      <c r="L331" s="0"/>
+      <c r="L331" t="s">
+        <v>162</v>
+      </c>
       <c r="M331" t="s">
         <v>160</v>
       </c>
@@ -18281,7 +18941,9 @@
       <c r="K332" t="s">
         <v>160</v>
       </c>
-      <c r="L332" s="0"/>
+      <c r="L332" t="s">
+        <v>162</v>
+      </c>
       <c r="M332" t="s">
         <v>160</v>
       </c>
@@ -18333,7 +18995,9 @@
       <c r="K333" t="s">
         <v>160</v>
       </c>
-      <c r="L333" s="0"/>
+      <c r="L333" t="s">
+        <v>162</v>
+      </c>
       <c r="M333" t="s">
         <v>160</v>
       </c>
@@ -18387,7 +19051,9 @@
       <c r="K334" t="s">
         <v>160</v>
       </c>
-      <c r="L334" s="0"/>
+      <c r="L334" t="s">
+        <v>162</v>
+      </c>
       <c r="M334" t="s">
         <v>160</v>
       </c>
@@ -18439,7 +19105,9 @@
       <c r="K335" t="s">
         <v>160</v>
       </c>
-      <c r="L335" s="0"/>
+      <c r="L335" t="s">
+        <v>162</v>
+      </c>
       <c r="M335" t="s">
         <v>160</v>
       </c>
@@ -18493,7 +19161,9 @@
       <c r="K336" t="s">
         <v>160</v>
       </c>
-      <c r="L336" s="0"/>
+      <c r="L336" t="s">
+        <v>162</v>
+      </c>
       <c r="M336" t="s">
         <v>160</v>
       </c>
@@ -18545,7 +19215,9 @@
       <c r="K337" t="s">
         <v>160</v>
       </c>
-      <c r="L337" s="0"/>
+      <c r="L337" t="s">
+        <v>162</v>
+      </c>
       <c r="M337" t="s">
         <v>160</v>
       </c>
@@ -18599,7 +19271,9 @@
       <c r="K338" t="s">
         <v>160</v>
       </c>
-      <c r="L338" s="0"/>
+      <c r="L338" t="s">
+        <v>162</v>
+      </c>
       <c r="M338" t="s">
         <v>160</v>
       </c>
@@ -18651,7 +19325,9 @@
       <c r="K339" t="s">
         <v>160</v>
       </c>
-      <c r="L339" s="0"/>
+      <c r="L339" t="s">
+        <v>162</v>
+      </c>
       <c r="M339" t="s">
         <v>159</v>
       </c>
@@ -18705,7 +19381,9 @@
       <c r="K340" t="s">
         <v>160</v>
       </c>
-      <c r="L340" s="0"/>
+      <c r="L340" t="s">
+        <v>162</v>
+      </c>
       <c r="M340" t="s">
         <v>160</v>
       </c>
@@ -18757,7 +19435,9 @@
       <c r="K341" t="s">
         <v>160</v>
       </c>
-      <c r="L341" s="0"/>
+      <c r="L341" t="s">
+        <v>162</v>
+      </c>
       <c r="M341" t="s">
         <v>159</v>
       </c>
@@ -18809,7 +19489,9 @@
       <c r="K342" t="s">
         <v>160</v>
       </c>
-      <c r="L342" s="0"/>
+      <c r="L342" t="s">
+        <v>162</v>
+      </c>
       <c r="M342" t="s">
         <v>159</v>
       </c>
@@ -18861,7 +19543,9 @@
       <c r="K343" t="s">
         <v>160</v>
       </c>
-      <c r="L343" s="0"/>
+      <c r="L343" t="s">
+        <v>162</v>
+      </c>
       <c r="M343" t="s">
         <v>160</v>
       </c>
@@ -18913,7 +19597,9 @@
       <c r="K344" t="s">
         <v>160</v>
       </c>
-      <c r="L344" s="0"/>
+      <c r="L344" t="s">
+        <v>162</v>
+      </c>
       <c r="M344" t="s">
         <v>159</v>
       </c>
@@ -18967,7 +19653,9 @@
       <c r="K345" t="s">
         <v>160</v>
       </c>
-      <c r="L345" s="0"/>
+      <c r="L345" t="s">
+        <v>162</v>
+      </c>
       <c r="M345" t="s">
         <v>160</v>
       </c>
@@ -19021,7 +19709,9 @@
       <c r="K346" t="s">
         <v>160</v>
       </c>
-      <c r="L346" s="0"/>
+      <c r="L346" t="s">
+        <v>162</v>
+      </c>
       <c r="M346" t="s">
         <v>160</v>
       </c>
@@ -19073,7 +19763,9 @@
       <c r="K347" t="s">
         <v>160</v>
       </c>
-      <c r="L347" s="0"/>
+      <c r="L347" t="s">
+        <v>162</v>
+      </c>
       <c r="M347" t="s">
         <v>160</v>
       </c>
@@ -19125,7 +19817,9 @@
       <c r="K348" t="s">
         <v>160</v>
       </c>
-      <c r="L348" s="0"/>
+      <c r="L348" t="s">
+        <v>162</v>
+      </c>
       <c r="M348" t="s">
         <v>160</v>
       </c>
@@ -19179,7 +19873,9 @@
       <c r="K349" t="s">
         <v>159</v>
       </c>
-      <c r="L349" s="0"/>
+      <c r="L349" t="s">
+        <v>162</v>
+      </c>
       <c r="M349" t="s">
         <v>160</v>
       </c>
@@ -19233,7 +19929,9 @@
       <c r="K350" t="s">
         <v>159</v>
       </c>
-      <c r="L350" s="0"/>
+      <c r="L350" t="s">
+        <v>162</v>
+      </c>
       <c r="M350" t="s">
         <v>160</v>
       </c>
@@ -19287,7 +19985,9 @@
       <c r="K351" t="s">
         <v>160</v>
       </c>
-      <c r="L351" s="0"/>
+      <c r="L351" t="s">
+        <v>162</v>
+      </c>
       <c r="M351" t="s">
         <v>160</v>
       </c>
@@ -19341,7 +20041,9 @@
       <c r="K352" t="s">
         <v>159</v>
       </c>
-      <c r="L352" s="0"/>
+      <c r="L352" t="s">
+        <v>162</v>
+      </c>
       <c r="M352" t="s">
         <v>160</v>
       </c>
@@ -19393,7 +20095,9 @@
       <c r="K353" t="s">
         <v>159</v>
       </c>
-      <c r="L353" s="0"/>
+      <c r="L353" t="s">
+        <v>162</v>
+      </c>
       <c r="M353" t="s">
         <v>160</v>
       </c>
@@ -19445,7 +20149,9 @@
       <c r="K354" t="s">
         <v>160</v>
       </c>
-      <c r="L354" s="0"/>
+      <c r="L354" t="s">
+        <v>162</v>
+      </c>
       <c r="M354" t="s">
         <v>160</v>
       </c>
@@ -19497,7 +20203,9 @@
       <c r="K355" t="s">
         <v>160</v>
       </c>
-      <c r="L355" s="0"/>
+      <c r="L355" t="s">
+        <v>162</v>
+      </c>
       <c r="M355" t="s">
         <v>160</v>
       </c>
@@ -19549,7 +20257,9 @@
       <c r="K356" t="s">
         <v>160</v>
       </c>
-      <c r="L356" s="0"/>
+      <c r="L356" t="s">
+        <v>162</v>
+      </c>
       <c r="M356" t="s">
         <v>160</v>
       </c>
@@ -19603,7 +20313,9 @@
       <c r="K357" t="s">
         <v>160</v>
       </c>
-      <c r="L357" s="0"/>
+      <c r="L357" t="s">
+        <v>162</v>
+      </c>
       <c r="M357" t="s">
         <v>160</v>
       </c>
@@ -19657,7 +20369,9 @@
       <c r="K358" t="s">
         <v>159</v>
       </c>
-      <c r="L358" s="0"/>
+      <c r="L358" t="s">
+        <v>162</v>
+      </c>
       <c r="M358" t="s">
         <v>160</v>
       </c>
@@ -19711,7 +20425,9 @@
       <c r="K359" t="s">
         <v>160</v>
       </c>
-      <c r="L359" s="0"/>
+      <c r="L359" t="s">
+        <v>162</v>
+      </c>
       <c r="M359" t="s">
         <v>160</v>
       </c>
@@ -19765,7 +20481,9 @@
       <c r="K360" t="s">
         <v>160</v>
       </c>
-      <c r="L360" s="0"/>
+      <c r="L360" t="s">
+        <v>162</v>
+      </c>
       <c r="M360" t="s">
         <v>160</v>
       </c>
@@ -19819,7 +20537,9 @@
       <c r="K361" t="s">
         <v>160</v>
       </c>
-      <c r="L361" s="0"/>
+      <c r="L361" t="s">
+        <v>162</v>
+      </c>
       <c r="M361" t="s">
         <v>160</v>
       </c>
@@ -19873,7 +20593,9 @@
       <c r="K362" t="s">
         <v>159</v>
       </c>
-      <c r="L362" s="0"/>
+      <c r="L362" t="s">
+        <v>162</v>
+      </c>
       <c r="M362" t="s">
         <v>160</v>
       </c>
@@ -19923,7 +20645,9 @@
       <c r="K363" t="s">
         <v>159</v>
       </c>
-      <c r="L363" s="0"/>
+      <c r="L363" t="s">
+        <v>162</v>
+      </c>
       <c r="M363" t="s">
         <v>159</v>
       </c>
@@ -19977,7 +20701,9 @@
       <c r="K364" t="s">
         <v>159</v>
       </c>
-      <c r="L364" s="0"/>
+      <c r="L364" t="s">
+        <v>162</v>
+      </c>
       <c r="M364" t="s">
         <v>160</v>
       </c>
@@ -20031,7 +20757,9 @@
       <c r="K365" t="s">
         <v>159</v>
       </c>
-      <c r="L365" s="0"/>
+      <c r="L365" t="s">
+        <v>162</v>
+      </c>
       <c r="M365" t="s">
         <v>160</v>
       </c>
@@ -20085,7 +20813,9 @@
       <c r="K366" t="s">
         <v>160</v>
       </c>
-      <c r="L366" s="0"/>
+      <c r="L366" t="s">
+        <v>162</v>
+      </c>
       <c r="M366" t="s">
         <v>160</v>
       </c>
@@ -20139,7 +20869,9 @@
       <c r="K367" t="s">
         <v>159</v>
       </c>
-      <c r="L367" s="0"/>
+      <c r="L367" t="s">
+        <v>162</v>
+      </c>
       <c r="M367" t="s">
         <v>160</v>
       </c>
@@ -20193,7 +20925,9 @@
       <c r="K368" t="s">
         <v>160</v>
       </c>
-      <c r="L368" s="0"/>
+      <c r="L368" t="s">
+        <v>162</v>
+      </c>
       <c r="M368" t="s">
         <v>160</v>
       </c>
@@ -20243,7 +20977,9 @@
       <c r="K369" t="s">
         <v>159</v>
       </c>
-      <c r="L369" s="0"/>
+      <c r="L369" t="s">
+        <v>162</v>
+      </c>
       <c r="M369" t="s">
         <v>159</v>
       </c>
@@ -20297,7 +21033,9 @@
       <c r="K370" t="s">
         <v>159</v>
       </c>
-      <c r="L370" s="0"/>
+      <c r="L370" t="s">
+        <v>162</v>
+      </c>
       <c r="M370" t="s">
         <v>160</v>
       </c>
@@ -20351,7 +21089,9 @@
       <c r="K371" t="s">
         <v>160</v>
       </c>
-      <c r="L371" s="0"/>
+      <c r="L371" t="s">
+        <v>162</v>
+      </c>
       <c r="M371" t="s">
         <v>160</v>
       </c>
@@ -20405,7 +21145,9 @@
       <c r="K372" t="s">
         <v>160</v>
       </c>
-      <c r="L372" s="0"/>
+      <c r="L372" t="s">
+        <v>162</v>
+      </c>
       <c r="M372" t="s">
         <v>159</v>
       </c>
@@ -20459,7 +21201,9 @@
       <c r="K373" t="s">
         <v>159</v>
       </c>
-      <c r="L373" s="0"/>
+      <c r="L373" t="s">
+        <v>162</v>
+      </c>
       <c r="M373" t="s">
         <v>159</v>
       </c>
@@ -20513,7 +21257,9 @@
       <c r="K374" t="s">
         <v>159</v>
       </c>
-      <c r="L374" s="0"/>
+      <c r="L374" t="s">
+        <v>162</v>
+      </c>
       <c r="M374" t="s">
         <v>160</v>
       </c>
@@ -20567,7 +21313,9 @@
       <c r="K375" t="s">
         <v>160</v>
       </c>
-      <c r="L375" s="0"/>
+      <c r="L375" t="s">
+        <v>162</v>
+      </c>
       <c r="M375" t="s">
         <v>160</v>
       </c>
@@ -20621,7 +21369,9 @@
       <c r="K376" t="s">
         <v>160</v>
       </c>
-      <c r="L376" s="0"/>
+      <c r="L376" t="s">
+        <v>162</v>
+      </c>
       <c r="M376" t="s">
         <v>159</v>
       </c>
@@ -20675,7 +21425,9 @@
       <c r="K377" t="s">
         <v>160</v>
       </c>
-      <c r="L377" s="0"/>
+      <c r="L377" t="s">
+        <v>162</v>
+      </c>
       <c r="M377" t="s">
         <v>160</v>
       </c>
@@ -20727,7 +21479,9 @@
       <c r="K378" t="s">
         <v>160</v>
       </c>
-      <c r="L378" s="0"/>
+      <c r="L378" t="s">
+        <v>162</v>
+      </c>
       <c r="M378" t="s">
         <v>160</v>
       </c>
@@ -20781,7 +21535,9 @@
       <c r="K379" t="s">
         <v>160</v>
       </c>
-      <c r="L379" s="0"/>
+      <c r="L379" t="s">
+        <v>162</v>
+      </c>
       <c r="M379" t="s">
         <v>160</v>
       </c>
@@ -20835,7 +21591,9 @@
       <c r="K380" t="s">
         <v>160</v>
       </c>
-      <c r="L380" s="0"/>
+      <c r="L380" t="s">
+        <v>162</v>
+      </c>
       <c r="M380" t="s">
         <v>160</v>
       </c>
@@ -20889,7 +21647,9 @@
       <c r="K381" t="s">
         <v>160</v>
       </c>
-      <c r="L381" s="0"/>
+      <c r="L381" t="s">
+        <v>162</v>
+      </c>
       <c r="M381" t="s">
         <v>159</v>
       </c>
@@ -20943,7 +21703,9 @@
       <c r="K382" t="s">
         <v>160</v>
       </c>
-      <c r="L382" s="0"/>
+      <c r="L382" t="s">
+        <v>162</v>
+      </c>
       <c r="M382" t="s">
         <v>160</v>
       </c>
@@ -20995,7 +21757,9 @@
       <c r="K383" t="s">
         <v>160</v>
       </c>
-      <c r="L383" s="0"/>
+      <c r="L383" t="s">
+        <v>162</v>
+      </c>
       <c r="M383" t="s">
         <v>160</v>
       </c>
@@ -21049,7 +21813,9 @@
       <c r="K384" t="s">
         <v>160</v>
       </c>
-      <c r="L384" s="0"/>
+      <c r="L384" t="s">
+        <v>162</v>
+      </c>
       <c r="M384" t="s">
         <v>160</v>
       </c>
@@ -21103,7 +21869,9 @@
       <c r="K385" t="s">
         <v>160</v>
       </c>
-      <c r="L385" s="0"/>
+      <c r="L385" t="s">
+        <v>162</v>
+      </c>
       <c r="M385" t="s">
         <v>160</v>
       </c>
@@ -21157,7 +21925,9 @@
       <c r="K386" t="s">
         <v>160</v>
       </c>
-      <c r="L386" s="0"/>
+      <c r="L386" t="s">
+        <v>162</v>
+      </c>
       <c r="M386" t="s">
         <v>160</v>
       </c>
@@ -21211,7 +21981,9 @@
       <c r="K387" t="s">
         <v>160</v>
       </c>
-      <c r="L387" s="0"/>
+      <c r="L387" t="s">
+        <v>162</v>
+      </c>
       <c r="M387" t="s">
         <v>160</v>
       </c>
@@ -21265,7 +22037,9 @@
       <c r="K388" t="s">
         <v>160</v>
       </c>
-      <c r="L388" s="0"/>
+      <c r="L388" t="s">
+        <v>162</v>
+      </c>
       <c r="M388" t="s">
         <v>159</v>
       </c>
@@ -21319,7 +22093,9 @@
       <c r="K389" t="s">
         <v>160</v>
       </c>
-      <c r="L389" s="0"/>
+      <c r="L389" t="s">
+        <v>162</v>
+      </c>
       <c r="M389" t="s">
         <v>159</v>
       </c>
@@ -21373,7 +22149,9 @@
       <c r="K390" t="s">
         <v>160</v>
       </c>
-      <c r="L390" s="0"/>
+      <c r="L390" t="s">
+        <v>162</v>
+      </c>
       <c r="M390" t="s">
         <v>159</v>
       </c>
@@ -21425,7 +22203,9 @@
       <c r="K391" t="s">
         <v>160</v>
       </c>
-      <c r="L391" s="0"/>
+      <c r="L391" t="s">
+        <v>162</v>
+      </c>
       <c r="M391" t="s">
         <v>159</v>
       </c>
@@ -21479,7 +22259,9 @@
       <c r="K392" t="s">
         <v>160</v>
       </c>
-      <c r="L392" s="0"/>
+      <c r="L392" t="s">
+        <v>162</v>
+      </c>
       <c r="M392" t="s">
         <v>160</v>
       </c>
@@ -21533,7 +22315,9 @@
       <c r="K393" t="s">
         <v>160</v>
       </c>
-      <c r="L393" s="0"/>
+      <c r="L393" t="s">
+        <v>162</v>
+      </c>
       <c r="M393" t="s">
         <v>160</v>
       </c>
@@ -21587,7 +22371,9 @@
       <c r="K394" t="s">
         <v>160</v>
       </c>
-      <c r="L394" s="0"/>
+      <c r="L394" t="s">
+        <v>162</v>
+      </c>
       <c r="M394" t="s">
         <v>160</v>
       </c>
@@ -21641,7 +22427,9 @@
       <c r="K395" t="s">
         <v>160</v>
       </c>
-      <c r="L395" s="0"/>
+      <c r="L395" t="s">
+        <v>162</v>
+      </c>
       <c r="M395" t="s">
         <v>159</v>
       </c>
@@ -21695,7 +22483,9 @@
       <c r="K396" t="s">
         <v>160</v>
       </c>
-      <c r="L396" s="0"/>
+      <c r="L396" t="s">
+        <v>162</v>
+      </c>
       <c r="M396" t="s">
         <v>160</v>
       </c>
@@ -21749,7 +22539,9 @@
       <c r="K397" t="s">
         <v>160</v>
       </c>
-      <c r="L397" s="0"/>
+      <c r="L397" t="s">
+        <v>162</v>
+      </c>
       <c r="M397" t="s">
         <v>160</v>
       </c>
@@ -21803,7 +22595,9 @@
       <c r="K398" t="s">
         <v>160</v>
       </c>
-      <c r="L398" s="0"/>
+      <c r="L398" t="s">
+        <v>162</v>
+      </c>
       <c r="M398" t="s">
         <v>160</v>
       </c>
@@ -21857,7 +22651,9 @@
       <c r="K399" t="s">
         <v>160</v>
       </c>
-      <c r="L399" s="0"/>
+      <c r="L399" t="s">
+        <v>162</v>
+      </c>
       <c r="M399" t="s">
         <v>160</v>
       </c>
@@ -21909,7 +22705,9 @@
       <c r="K400" t="s">
         <v>159</v>
       </c>
-      <c r="L400" s="0"/>
+      <c r="L400" t="s">
+        <v>162</v>
+      </c>
       <c r="M400" t="s">
         <v>160</v>
       </c>
@@ -21961,7 +22759,9 @@
       <c r="K401" t="s">
         <v>160</v>
       </c>
-      <c r="L401" s="0"/>
+      <c r="L401" t="s">
+        <v>162</v>
+      </c>
       <c r="M401" t="s">
         <v>160</v>
       </c>
@@ -22015,7 +22815,9 @@
       <c r="K402" t="s">
         <v>159</v>
       </c>
-      <c r="L402" s="0"/>
+      <c r="L402" t="s">
+        <v>162</v>
+      </c>
       <c r="M402" t="s">
         <v>160</v>
       </c>
@@ -22067,7 +22869,9 @@
       <c r="K403" t="s">
         <v>160</v>
       </c>
-      <c r="L403" s="0"/>
+      <c r="L403" t="s">
+        <v>162</v>
+      </c>
       <c r="M403" t="s">
         <v>159</v>
       </c>
@@ -22119,7 +22923,9 @@
       <c r="K404" t="s">
         <v>160</v>
       </c>
-      <c r="L404" s="0"/>
+      <c r="L404" t="s">
+        <v>162</v>
+      </c>
       <c r="M404" t="s">
         <v>160</v>
       </c>
@@ -22171,7 +22977,9 @@
       <c r="K405" t="s">
         <v>160</v>
       </c>
-      <c r="L405" s="0"/>
+      <c r="L405" t="s">
+        <v>162</v>
+      </c>
       <c r="M405" t="s">
         <v>160</v>
       </c>
@@ -22225,7 +23033,9 @@
       <c r="K406" t="s">
         <v>160</v>
       </c>
-      <c r="L406" s="0"/>
+      <c r="L406" t="s">
+        <v>162</v>
+      </c>
       <c r="M406" t="s">
         <v>159</v>
       </c>
@@ -22277,7 +23087,9 @@
       <c r="K407" t="s">
         <v>160</v>
       </c>
-      <c r="L407" s="0"/>
+      <c r="L407" t="s">
+        <v>162</v>
+      </c>
       <c r="M407" t="s">
         <v>160</v>
       </c>
@@ -22331,7 +23143,9 @@
       <c r="K408" t="s">
         <v>160</v>
       </c>
-      <c r="L408" s="0"/>
+      <c r="L408" t="s">
+        <v>162</v>
+      </c>
       <c r="M408" t="s">
         <v>160</v>
       </c>
@@ -22383,7 +23197,9 @@
       <c r="K409" t="s">
         <v>160</v>
       </c>
-      <c r="L409" s="0"/>
+      <c r="L409" t="s">
+        <v>162</v>
+      </c>
       <c r="M409" t="s">
         <v>160</v>
       </c>
@@ -22437,7 +23253,9 @@
       <c r="K410" t="s">
         <v>160</v>
       </c>
-      <c r="L410" s="0"/>
+      <c r="L410" t="s">
+        <v>162</v>
+      </c>
       <c r="M410" t="s">
         <v>160</v>
       </c>
@@ -22489,7 +23307,9 @@
       <c r="K411" t="s">
         <v>160</v>
       </c>
-      <c r="L411" s="0"/>
+      <c r="L411" t="s">
+        <v>162</v>
+      </c>
       <c r="M411" t="s">
         <v>159</v>
       </c>
@@ -22543,7 +23363,9 @@
       <c r="K412" t="s">
         <v>160</v>
       </c>
-      <c r="L412" s="0"/>
+      <c r="L412" t="s">
+        <v>162</v>
+      </c>
       <c r="M412" t="s">
         <v>160</v>
       </c>
@@ -22595,7 +23417,9 @@
       <c r="K413" t="s">
         <v>160</v>
       </c>
-      <c r="L413" s="0"/>
+      <c r="L413" t="s">
+        <v>162</v>
+      </c>
       <c r="M413" t="s">
         <v>159</v>
       </c>
@@ -22647,7 +23471,9 @@
       <c r="K414" t="s">
         <v>160</v>
       </c>
-      <c r="L414" s="0"/>
+      <c r="L414" t="s">
+        <v>162</v>
+      </c>
       <c r="M414" t="s">
         <v>160</v>
       </c>
@@ -22699,7 +23525,9 @@
       <c r="K415" t="s">
         <v>160</v>
       </c>
-      <c r="L415" s="0"/>
+      <c r="L415" t="s">
+        <v>162</v>
+      </c>
       <c r="M415" t="s">
         <v>160</v>
       </c>
@@ -22751,7 +23579,9 @@
       <c r="K416" t="s">
         <v>160</v>
       </c>
-      <c r="L416" s="0"/>
+      <c r="L416" t="s">
+        <v>162</v>
+      </c>
       <c r="M416" t="s">
         <v>160</v>
       </c>
@@ -22805,7 +23635,9 @@
       <c r="K417" t="s">
         <v>160</v>
       </c>
-      <c r="L417" s="0"/>
+      <c r="L417" t="s">
+        <v>162</v>
+      </c>
       <c r="M417" t="s">
         <v>160</v>
       </c>
@@ -22859,7 +23691,9 @@
       <c r="K418" t="s">
         <v>160</v>
       </c>
-      <c r="L418" s="0"/>
+      <c r="L418" t="s">
+        <v>162</v>
+      </c>
       <c r="M418" t="s">
         <v>160</v>
       </c>
@@ -22911,7 +23745,9 @@
       <c r="K419" t="s">
         <v>160</v>
       </c>
-      <c r="L419" s="0"/>
+      <c r="L419" t="s">
+        <v>162</v>
+      </c>
       <c r="M419" t="s">
         <v>160</v>
       </c>
@@ -22963,7 +23799,9 @@
       <c r="K420" t="s">
         <v>160</v>
       </c>
-      <c r="L420" s="0"/>
+      <c r="L420" t="s">
+        <v>162</v>
+      </c>
       <c r="M420" t="s">
         <v>160</v>
       </c>
@@ -23017,7 +23855,9 @@
       <c r="K421" t="s">
         <v>159</v>
       </c>
-      <c r="L421" s="0"/>
+      <c r="L421" t="s">
+        <v>162</v>
+      </c>
       <c r="M421" t="s">
         <v>160</v>
       </c>
@@ -23071,7 +23911,9 @@
       <c r="K422" t="s">
         <v>159</v>
       </c>
-      <c r="L422" s="0"/>
+      <c r="L422" t="s">
+        <v>162</v>
+      </c>
       <c r="M422" t="s">
         <v>160</v>
       </c>
@@ -23125,7 +23967,9 @@
       <c r="K423" t="s">
         <v>160</v>
       </c>
-      <c r="L423" s="0"/>
+      <c r="L423" t="s">
+        <v>162</v>
+      </c>
       <c r="M423" t="s">
         <v>160</v>
       </c>
@@ -23179,7 +24023,9 @@
       <c r="K424" t="s">
         <v>159</v>
       </c>
-      <c r="L424" s="0"/>
+      <c r="L424" t="s">
+        <v>162</v>
+      </c>
       <c r="M424" t="s">
         <v>160</v>
       </c>
@@ -23231,7 +24077,9 @@
       <c r="K425" t="s">
         <v>159</v>
       </c>
-      <c r="L425" s="0"/>
+      <c r="L425" t="s">
+        <v>162</v>
+      </c>
       <c r="M425" t="s">
         <v>160</v>
       </c>
@@ -23283,7 +24131,9 @@
       <c r="K426" t="s">
         <v>160</v>
       </c>
-      <c r="L426" s="0"/>
+      <c r="L426" t="s">
+        <v>162</v>
+      </c>
       <c r="M426" t="s">
         <v>160</v>
       </c>
@@ -23335,7 +24185,9 @@
       <c r="K427" t="s">
         <v>160</v>
       </c>
-      <c r="L427" s="0"/>
+      <c r="L427" t="s">
+        <v>162</v>
+      </c>
       <c r="M427" t="s">
         <v>160</v>
       </c>
@@ -23387,7 +24239,9 @@
       <c r="K428" t="s">
         <v>160</v>
       </c>
-      <c r="L428" s="0"/>
+      <c r="L428" t="s">
+        <v>162</v>
+      </c>
       <c r="M428" t="s">
         <v>160</v>
       </c>
@@ -23441,7 +24295,9 @@
       <c r="K429" t="s">
         <v>160</v>
       </c>
-      <c r="L429" s="0"/>
+      <c r="L429" t="s">
+        <v>162</v>
+      </c>
       <c r="M429" t="s">
         <v>160</v>
       </c>
@@ -23495,7 +24351,9 @@
       <c r="K430" t="s">
         <v>159</v>
       </c>
-      <c r="L430" s="0"/>
+      <c r="L430" t="s">
+        <v>162</v>
+      </c>
       <c r="M430" t="s">
         <v>159</v>
       </c>
@@ -23549,7 +24407,9 @@
       <c r="K431" t="s">
         <v>160</v>
       </c>
-      <c r="L431" s="0"/>
+      <c r="L431" t="s">
+        <v>162</v>
+      </c>
       <c r="M431" t="s">
         <v>159</v>
       </c>
@@ -23603,7 +24463,9 @@
       <c r="K432" t="s">
         <v>160</v>
       </c>
-      <c r="L432" s="0"/>
+      <c r="L432" t="s">
+        <v>162</v>
+      </c>
       <c r="M432" t="s">
         <v>159</v>
       </c>
@@ -23657,7 +24519,9 @@
       <c r="K433" t="s">
         <v>160</v>
       </c>
-      <c r="L433" s="0"/>
+      <c r="L433" t="s">
+        <v>162</v>
+      </c>
       <c r="M433" t="s">
         <v>160</v>
       </c>
@@ -23711,7 +24575,9 @@
       <c r="K434" t="s">
         <v>159</v>
       </c>
-      <c r="L434" s="0"/>
+      <c r="L434" t="s">
+        <v>162</v>
+      </c>
       <c r="M434" t="s">
         <v>160</v>
       </c>
@@ -23761,7 +24627,9 @@
       <c r="K435" t="s">
         <v>159</v>
       </c>
-      <c r="L435" s="0"/>
+      <c r="L435" t="s">
+        <v>162</v>
+      </c>
       <c r="M435" t="s">
         <v>159</v>
       </c>
@@ -23815,7 +24683,9 @@
       <c r="K436" t="s">
         <v>159</v>
       </c>
-      <c r="L436" s="0"/>
+      <c r="L436" t="s">
+        <v>162</v>
+      </c>
       <c r="M436" t="s">
         <v>160</v>
       </c>
@@ -23869,7 +24739,9 @@
       <c r="K437" t="s">
         <v>159</v>
       </c>
-      <c r="L437" s="0"/>
+      <c r="L437" t="s">
+        <v>162</v>
+      </c>
       <c r="M437" t="s">
         <v>159</v>
       </c>
@@ -23923,7 +24795,9 @@
       <c r="K438" t="s">
         <v>160</v>
       </c>
-      <c r="L438" s="0"/>
+      <c r="L438" t="s">
+        <v>162</v>
+      </c>
       <c r="M438" t="s">
         <v>160</v>
       </c>
@@ -23977,7 +24851,9 @@
       <c r="K439" t="s">
         <v>159</v>
       </c>
-      <c r="L439" s="0"/>
+      <c r="L439" t="s">
+        <v>162</v>
+      </c>
       <c r="M439" t="s">
         <v>160</v>
       </c>
@@ -24031,7 +24907,9 @@
       <c r="K440" t="s">
         <v>160</v>
       </c>
-      <c r="L440" s="0"/>
+      <c r="L440" t="s">
+        <v>162</v>
+      </c>
       <c r="M440" t="s">
         <v>160</v>
       </c>
@@ -24081,7 +24959,9 @@
       <c r="K441" t="s">
         <v>159</v>
       </c>
-      <c r="L441" s="0"/>
+      <c r="L441" t="s">
+        <v>162</v>
+      </c>
       <c r="M441" t="s">
         <v>159</v>
       </c>
@@ -24135,7 +25015,9 @@
       <c r="K442" t="s">
         <v>159</v>
       </c>
-      <c r="L442" s="0"/>
+      <c r="L442" t="s">
+        <v>162</v>
+      </c>
       <c r="M442" t="s">
         <v>160</v>
       </c>
@@ -24189,7 +25071,9 @@
       <c r="K443" t="s">
         <v>160</v>
       </c>
-      <c r="L443" s="0"/>
+      <c r="L443" t="s">
+        <v>162</v>
+      </c>
       <c r="M443" t="s">
         <v>160</v>
       </c>
@@ -24243,7 +25127,9 @@
       <c r="K444" t="s">
         <v>160</v>
       </c>
-      <c r="L444" s="0"/>
+      <c r="L444" t="s">
+        <v>162</v>
+      </c>
       <c r="M444" t="s">
         <v>160</v>
       </c>
@@ -24297,7 +25183,9 @@
       <c r="K445" t="s">
         <v>159</v>
       </c>
-      <c r="L445" s="0"/>
+      <c r="L445" t="s">
+        <v>162</v>
+      </c>
       <c r="M445" t="s">
         <v>159</v>
       </c>
@@ -24351,7 +25239,9 @@
       <c r="K446" t="s">
         <v>159</v>
       </c>
-      <c r="L446" s="0"/>
+      <c r="L446" t="s">
+        <v>162</v>
+      </c>
       <c r="M446" t="s">
         <v>160</v>
       </c>
@@ -24405,7 +25295,9 @@
       <c r="K447" t="s">
         <v>160</v>
       </c>
-      <c r="L447" s="0"/>
+      <c r="L447" t="s">
+        <v>162</v>
+      </c>
       <c r="M447" t="s">
         <v>160</v>
       </c>
@@ -24459,7 +25351,9 @@
       <c r="K448" t="s">
         <v>160</v>
       </c>
-      <c r="L448" s="0"/>
+      <c r="L448" t="s">
+        <v>162</v>
+      </c>
       <c r="M448" t="s">
         <v>159</v>
       </c>
@@ -24513,7 +25407,9 @@
       <c r="K449" t="s">
         <v>160</v>
       </c>
-      <c r="L449" s="0"/>
+      <c r="L449" t="s">
+        <v>162</v>
+      </c>
       <c r="M449" t="s">
         <v>160</v>
       </c>
@@ -24565,7 +25461,9 @@
       <c r="K450" t="s">
         <v>160</v>
       </c>
-      <c r="L450" s="0"/>
+      <c r="L450" t="s">
+        <v>162</v>
+      </c>
       <c r="M450" t="s">
         <v>160</v>
       </c>
@@ -24619,7 +25517,9 @@
       <c r="K451" t="s">
         <v>160</v>
       </c>
-      <c r="L451" s="0"/>
+      <c r="L451" t="s">
+        <v>162</v>
+      </c>
       <c r="M451" t="s">
         <v>160</v>
       </c>
@@ -24673,7 +25573,9 @@
       <c r="K452" t="s">
         <v>160</v>
       </c>
-      <c r="L452" s="0"/>
+      <c r="L452" t="s">
+        <v>162</v>
+      </c>
       <c r="M452" t="s">
         <v>160</v>
       </c>
@@ -24727,7 +25629,9 @@
       <c r="K453" t="s">
         <v>160</v>
       </c>
-      <c r="L453" s="0"/>
+      <c r="L453" t="s">
+        <v>162</v>
+      </c>
       <c r="M453" t="s">
         <v>160</v>
       </c>
@@ -24781,7 +25685,9 @@
       <c r="K454" t="s">
         <v>160</v>
       </c>
-      <c r="L454" s="0"/>
+      <c r="L454" t="s">
+        <v>162</v>
+      </c>
       <c r="M454" t="s">
         <v>160</v>
       </c>
@@ -24833,7 +25739,9 @@
       <c r="K455" t="s">
         <v>160</v>
       </c>
-      <c r="L455" s="0"/>
+      <c r="L455" t="s">
+        <v>162</v>
+      </c>
       <c r="M455" t="s">
         <v>160</v>
       </c>
@@ -24887,7 +25795,9 @@
       <c r="K456" t="s">
         <v>160</v>
       </c>
-      <c r="L456" s="0"/>
+      <c r="L456" t="s">
+        <v>162</v>
+      </c>
       <c r="M456" t="s">
         <v>160</v>
       </c>
@@ -24941,7 +25851,9 @@
       <c r="K457" t="s">
         <v>160</v>
       </c>
-      <c r="L457" s="0"/>
+      <c r="L457" t="s">
+        <v>162</v>
+      </c>
       <c r="M457" t="s">
         <v>160</v>
       </c>
@@ -24995,7 +25907,9 @@
       <c r="K458" t="s">
         <v>160</v>
       </c>
-      <c r="L458" s="0"/>
+      <c r="L458" t="s">
+        <v>162</v>
+      </c>
       <c r="M458" t="s">
         <v>160</v>
       </c>
@@ -25049,7 +25963,9 @@
       <c r="K459" t="s">
         <v>160</v>
       </c>
-      <c r="L459" s="0"/>
+      <c r="L459" t="s">
+        <v>162</v>
+      </c>
       <c r="M459" t="s">
         <v>160</v>
       </c>
@@ -25103,7 +26019,9 @@
       <c r="K460" t="s">
         <v>160</v>
       </c>
-      <c r="L460" s="0"/>
+      <c r="L460" t="s">
+        <v>162</v>
+      </c>
       <c r="M460" t="s">
         <v>159</v>
       </c>
@@ -25157,7 +26075,9 @@
       <c r="K461" t="s">
         <v>160</v>
       </c>
-      <c r="L461" s="0"/>
+      <c r="L461" t="s">
+        <v>162</v>
+      </c>
       <c r="M461" t="s">
         <v>160</v>
       </c>
@@ -25211,7 +26131,9 @@
       <c r="K462" t="s">
         <v>160</v>
       </c>
-      <c r="L462" s="0"/>
+      <c r="L462" t="s">
+        <v>162</v>
+      </c>
       <c r="M462" t="s">
         <v>159</v>
       </c>
@@ -25263,7 +26185,9 @@
       <c r="K463" t="s">
         <v>160</v>
       </c>
-      <c r="L463" s="0"/>
+      <c r="L463" t="s">
+        <v>162</v>
+      </c>
       <c r="M463" t="s">
         <v>160</v>
       </c>
@@ -25317,7 +26241,9 @@
       <c r="K464" t="s">
         <v>160</v>
       </c>
-      <c r="L464" s="0"/>
+      <c r="L464" t="s">
+        <v>162</v>
+      </c>
       <c r="M464" t="s">
         <v>159</v>
       </c>
@@ -25371,7 +26297,9 @@
       <c r="K465" t="s">
         <v>160</v>
       </c>
-      <c r="L465" s="0"/>
+      <c r="L465" t="s">
+        <v>162</v>
+      </c>
       <c r="M465" t="s">
         <v>160</v>
       </c>
@@ -25425,7 +26353,9 @@
       <c r="K466" t="s">
         <v>160</v>
       </c>
-      <c r="L466" s="0"/>
+      <c r="L466" t="s">
+        <v>162</v>
+      </c>
       <c r="M466" t="s">
         <v>160</v>
       </c>
@@ -25479,7 +26409,9 @@
       <c r="K467" t="s">
         <v>160</v>
       </c>
-      <c r="L467" s="0"/>
+      <c r="L467" t="s">
+        <v>162</v>
+      </c>
       <c r="M467" t="s">
         <v>160</v>
       </c>
@@ -25533,7 +26465,9 @@
       <c r="K468" t="s">
         <v>160</v>
       </c>
-      <c r="L468" s="0"/>
+      <c r="L468" t="s">
+        <v>162</v>
+      </c>
       <c r="M468" t="s">
         <v>160</v>
       </c>
@@ -25587,7 +26521,9 @@
       <c r="K469" t="s">
         <v>160</v>
       </c>
-      <c r="L469" s="0"/>
+      <c r="L469" t="s">
+        <v>162</v>
+      </c>
       <c r="M469" t="s">
         <v>160</v>
       </c>
@@ -25641,7 +26577,9 @@
       <c r="K470" t="s">
         <v>160</v>
       </c>
-      <c r="L470" s="0"/>
+      <c r="L470" t="s">
+        <v>162</v>
+      </c>
       <c r="M470" t="s">
         <v>160</v>
       </c>
@@ -25695,7 +26633,9 @@
       <c r="K471" t="s">
         <v>160</v>
       </c>
-      <c r="L471" s="0"/>
+      <c r="L471" t="s">
+        <v>162</v>
+      </c>
       <c r="M471" t="s">
         <v>160</v>
       </c>
@@ -25747,7 +26687,9 @@
       <c r="K472" t="s">
         <v>159</v>
       </c>
-      <c r="L472" s="0"/>
+      <c r="L472" t="s">
+        <v>162</v>
+      </c>
       <c r="M472" t="s">
         <v>159</v>
       </c>
@@ -25799,7 +26741,9 @@
       <c r="K473" t="s">
         <v>160</v>
       </c>
-      <c r="L473" s="0"/>
+      <c r="L473" t="s">
+        <v>162</v>
+      </c>
       <c r="M473" t="s">
         <v>160</v>
       </c>
@@ -25853,7 +26797,9 @@
       <c r="K474" t="s">
         <v>159</v>
       </c>
-      <c r="L474" s="0"/>
+      <c r="L474" t="s">
+        <v>162</v>
+      </c>
       <c r="M474" t="s">
         <v>159</v>
       </c>
@@ -25905,7 +26851,9 @@
       <c r="K475" t="s">
         <v>160</v>
       </c>
-      <c r="L475" s="0"/>
+      <c r="L475" t="s">
+        <v>162</v>
+      </c>
       <c r="M475" t="s">
         <v>160</v>
       </c>
@@ -25957,7 +26905,9 @@
       <c r="K476" t="s">
         <v>160</v>
       </c>
-      <c r="L476" s="0"/>
+      <c r="L476" t="s">
+        <v>162</v>
+      </c>
       <c r="M476" t="s">
         <v>160</v>
       </c>
@@ -26009,7 +26959,9 @@
       <c r="K477" t="s">
         <v>160</v>
       </c>
-      <c r="L477" s="0"/>
+      <c r="L477" t="s">
+        <v>162</v>
+      </c>
       <c r="M477" t="s">
         <v>160</v>
       </c>
@@ -26063,7 +27015,9 @@
       <c r="K478" t="s">
         <v>160</v>
       </c>
-      <c r="L478" s="0"/>
+      <c r="L478" t="s">
+        <v>162</v>
+      </c>
       <c r="M478" t="s">
         <v>160</v>
       </c>
@@ -26115,7 +27069,9 @@
       <c r="K479" t="s">
         <v>160</v>
       </c>
-      <c r="L479" s="0"/>
+      <c r="L479" t="s">
+        <v>162</v>
+      </c>
       <c r="M479" t="s">
         <v>160</v>
       </c>
@@ -26169,7 +27125,9 @@
       <c r="K480" t="s">
         <v>160</v>
       </c>
-      <c r="L480" s="0"/>
+      <c r="L480" t="s">
+        <v>162</v>
+      </c>
       <c r="M480" t="s">
         <v>160</v>
       </c>
@@ -26221,7 +27179,9 @@
       <c r="K481" t="s">
         <v>160</v>
       </c>
-      <c r="L481" s="0"/>
+      <c r="L481" t="s">
+        <v>162</v>
+      </c>
       <c r="M481" t="s">
         <v>160</v>
       </c>
@@ -26275,7 +27235,9 @@
       <c r="K482" t="s">
         <v>160</v>
       </c>
-      <c r="L482" s="0"/>
+      <c r="L482" t="s">
+        <v>162</v>
+      </c>
       <c r="M482" t="s">
         <v>160</v>
       </c>
@@ -26327,7 +27289,9 @@
       <c r="K483" t="s">
         <v>160</v>
       </c>
-      <c r="L483" s="0"/>
+      <c r="L483" t="s">
+        <v>162</v>
+      </c>
       <c r="M483" t="s">
         <v>159</v>
       </c>
@@ -26381,7 +27345,9 @@
       <c r="K484" t="s">
         <v>160</v>
       </c>
-      <c r="L484" s="0"/>
+      <c r="L484" t="s">
+        <v>162</v>
+      </c>
       <c r="M484" t="s">
         <v>160</v>
       </c>
@@ -26433,7 +27399,9 @@
       <c r="K485" t="s">
         <v>160</v>
       </c>
-      <c r="L485" s="0"/>
+      <c r="L485" t="s">
+        <v>162</v>
+      </c>
       <c r="M485" t="s">
         <v>159</v>
       </c>
@@ -26485,7 +27453,9 @@
       <c r="K486" t="s">
         <v>160</v>
       </c>
-      <c r="L486" s="0"/>
+      <c r="L486" t="s">
+        <v>162</v>
+      </c>
       <c r="M486" t="s">
         <v>160</v>
       </c>
@@ -26537,7 +27507,9 @@
       <c r="K487" t="s">
         <v>160</v>
       </c>
-      <c r="L487" s="0"/>
+      <c r="L487" t="s">
+        <v>162</v>
+      </c>
       <c r="M487" t="s">
         <v>160</v>
       </c>
@@ -26589,7 +27561,9 @@
       <c r="K488" t="s">
         <v>160</v>
       </c>
-      <c r="L488" s="0"/>
+      <c r="L488" t="s">
+        <v>162</v>
+      </c>
       <c r="M488" t="s">
         <v>160</v>
       </c>
@@ -26643,7 +27617,9 @@
       <c r="K489" t="s">
         <v>160</v>
       </c>
-      <c r="L489" s="0"/>
+      <c r="L489" t="s">
+        <v>162</v>
+      </c>
       <c r="M489" t="s">
         <v>160</v>
       </c>
@@ -26697,7 +27673,9 @@
       <c r="K490" t="s">
         <v>160</v>
       </c>
-      <c r="L490" s="0"/>
+      <c r="L490" t="s">
+        <v>162</v>
+      </c>
       <c r="M490" t="s">
         <v>160</v>
       </c>
@@ -26749,7 +27727,9 @@
       <c r="K491" t="s">
         <v>160</v>
       </c>
-      <c r="L491" s="0"/>
+      <c r="L491" t="s">
+        <v>162</v>
+      </c>
       <c r="M491" t="s">
         <v>160</v>
       </c>
@@ -26801,7 +27781,9 @@
       <c r="K492" t="s">
         <v>160</v>
       </c>
-      <c r="L492" s="0"/>
+      <c r="L492" t="s">
+        <v>162</v>
+      </c>
       <c r="M492" t="s">
         <v>160</v>
       </c>
@@ -26855,7 +27837,9 @@
       <c r="K493" t="s">
         <v>159</v>
       </c>
-      <c r="L493" s="0"/>
+      <c r="L493" t="s">
+        <v>162</v>
+      </c>
       <c r="M493" t="s">
         <v>160</v>
       </c>
@@ -26909,7 +27893,9 @@
       <c r="K494" t="s">
         <v>159</v>
       </c>
-      <c r="L494" s="0"/>
+      <c r="L494" t="s">
+        <v>162</v>
+      </c>
       <c r="M494" t="s">
         <v>160</v>
       </c>
@@ -26963,7 +27949,9 @@
       <c r="K495" t="s">
         <v>160</v>
       </c>
-      <c r="L495" s="0"/>
+      <c r="L495" t="s">
+        <v>162</v>
+      </c>
       <c r="M495" t="s">
         <v>160</v>
       </c>
@@ -27017,7 +28005,9 @@
       <c r="K496" t="s">
         <v>159</v>
       </c>
-      <c r="L496" s="0"/>
+      <c r="L496" t="s">
+        <v>162</v>
+      </c>
       <c r="M496" t="s">
         <v>160</v>
       </c>
@@ -27069,7 +28059,9 @@
       <c r="K497" t="s">
         <v>159</v>
       </c>
-      <c r="L497" s="0"/>
+      <c r="L497" t="s">
+        <v>162</v>
+      </c>
       <c r="M497" t="s">
         <v>160</v>
       </c>
@@ -27121,7 +28113,9 @@
       <c r="K498" t="s">
         <v>160</v>
       </c>
-      <c r="L498" s="0"/>
+      <c r="L498" t="s">
+        <v>162</v>
+      </c>
       <c r="M498" t="s">
         <v>160</v>
       </c>
@@ -27173,7 +28167,9 @@
       <c r="K499" t="s">
         <v>160</v>
       </c>
-      <c r="L499" s="0"/>
+      <c r="L499" t="s">
+        <v>162</v>
+      </c>
       <c r="M499" t="s">
         <v>160</v>
       </c>
@@ -27225,7 +28221,9 @@
       <c r="K500" t="s">
         <v>160</v>
       </c>
-      <c r="L500" s="0"/>
+      <c r="L500" t="s">
+        <v>162</v>
+      </c>
       <c r="M500" t="s">
         <v>160</v>
       </c>
@@ -27279,7 +28277,9 @@
       <c r="K501" t="s">
         <v>160</v>
       </c>
-      <c r="L501" s="0"/>
+      <c r="L501" t="s">
+        <v>162</v>
+      </c>
       <c r="M501" t="s">
         <v>160</v>
       </c>
@@ -27333,7 +28333,9 @@
       <c r="K502" t="s">
         <v>159</v>
       </c>
-      <c r="L502" s="0"/>
+      <c r="L502" t="s">
+        <v>162</v>
+      </c>
       <c r="M502" t="s">
         <v>160</v>
       </c>
@@ -27387,7 +28389,9 @@
       <c r="K503" t="s">
         <v>160</v>
       </c>
-      <c r="L503" s="0"/>
+      <c r="L503" t="s">
+        <v>162</v>
+      </c>
       <c r="M503" t="s">
         <v>159</v>
       </c>
@@ -27441,7 +28445,9 @@
       <c r="K504" t="s">
         <v>160</v>
       </c>
-      <c r="L504" s="0"/>
+      <c r="L504" t="s">
+        <v>162</v>
+      </c>
       <c r="M504" t="s">
         <v>159</v>
       </c>
@@ -27495,7 +28501,9 @@
       <c r="K505" t="s">
         <v>160</v>
       </c>
-      <c r="L505" s="0"/>
+      <c r="L505" t="s">
+        <v>162</v>
+      </c>
       <c r="M505" t="s">
         <v>160</v>
       </c>
@@ -27549,7 +28557,9 @@
       <c r="K506" t="s">
         <v>159</v>
       </c>
-      <c r="L506" s="0"/>
+      <c r="L506" t="s">
+        <v>162</v>
+      </c>
       <c r="M506" t="s">
         <v>160</v>
       </c>
@@ -27599,7 +28609,9 @@
       <c r="K507" t="s">
         <v>159</v>
       </c>
-      <c r="L507" s="0"/>
+      <c r="L507" t="s">
+        <v>162</v>
+      </c>
       <c r="M507" t="s">
         <v>159</v>
       </c>
@@ -27653,7 +28665,9 @@
       <c r="K508" t="s">
         <v>159</v>
       </c>
-      <c r="L508" s="0"/>
+      <c r="L508" t="s">
+        <v>162</v>
+      </c>
       <c r="M508" t="s">
         <v>160</v>
       </c>
@@ -27707,7 +28721,9 @@
       <c r="K509" t="s">
         <v>159</v>
       </c>
-      <c r="L509" s="0"/>
+      <c r="L509" t="s">
+        <v>162</v>
+      </c>
       <c r="M509" t="s">
         <v>159</v>
       </c>
@@ -27761,7 +28777,9 @@
       <c r="K510" t="s">
         <v>160</v>
       </c>
-      <c r="L510" s="0"/>
+      <c r="L510" t="s">
+        <v>162</v>
+      </c>
       <c r="M510" t="s">
         <v>160</v>
       </c>
@@ -27815,7 +28833,9 @@
       <c r="K511" t="s">
         <v>159</v>
       </c>
-      <c r="L511" s="0"/>
+      <c r="L511" t="s">
+        <v>162</v>
+      </c>
       <c r="M511" t="s">
         <v>160</v>
       </c>
@@ -27869,7 +28889,9 @@
       <c r="K512" t="s">
         <v>160</v>
       </c>
-      <c r="L512" s="0"/>
+      <c r="L512" t="s">
+        <v>162</v>
+      </c>
       <c r="M512" t="s">
         <v>160</v>
       </c>
@@ -27919,7 +28941,9 @@
       <c r="K513" t="s">
         <v>159</v>
       </c>
-      <c r="L513" s="0"/>
+      <c r="L513" t="s">
+        <v>162</v>
+      </c>
       <c r="M513" t="s">
         <v>159</v>
       </c>
@@ -27973,7 +28997,9 @@
       <c r="K514" t="s">
         <v>159</v>
       </c>
-      <c r="L514" s="0"/>
+      <c r="L514" t="s">
+        <v>162</v>
+      </c>
       <c r="M514" t="s">
         <v>160</v>
       </c>
@@ -28027,7 +29053,9 @@
       <c r="K515" t="s">
         <v>160</v>
       </c>
-      <c r="L515" s="0"/>
+      <c r="L515" t="s">
+        <v>162</v>
+      </c>
       <c r="M515" t="s">
         <v>160</v>
       </c>
@@ -28081,7 +29109,9 @@
       <c r="K516" t="s">
         <v>160</v>
       </c>
-      <c r="L516" s="0"/>
+      <c r="L516" t="s">
+        <v>162</v>
+      </c>
       <c r="M516" t="s">
         <v>160</v>
       </c>
@@ -28135,7 +29165,9 @@
       <c r="K517" t="s">
         <v>159</v>
       </c>
-      <c r="L517" s="0"/>
+      <c r="L517" t="s">
+        <v>162</v>
+      </c>
       <c r="M517" t="s">
         <v>159</v>
       </c>
@@ -28189,7 +29221,9 @@
       <c r="K518" t="s">
         <v>159</v>
       </c>
-      <c r="L518" s="0"/>
+      <c r="L518" t="s">
+        <v>162</v>
+      </c>
       <c r="M518" t="s">
         <v>160</v>
       </c>
@@ -28243,7 +29277,9 @@
       <c r="K519" t="s">
         <v>160</v>
       </c>
-      <c r="L519" s="0"/>
+      <c r="L519" t="s">
+        <v>162</v>
+      </c>
       <c r="M519" t="s">
         <v>160</v>
       </c>
@@ -28297,7 +29333,9 @@
       <c r="K520" t="s">
         <v>160</v>
       </c>
-      <c r="L520" s="0"/>
+      <c r="L520" t="s">
+        <v>162</v>
+      </c>
       <c r="M520" t="s">
         <v>160</v>
       </c>
@@ -28351,7 +29389,9 @@
       <c r="K521" t="s">
         <v>160</v>
       </c>
-      <c r="L521" s="0"/>
+      <c r="L521" t="s">
+        <v>162</v>
+      </c>
       <c r="M521" t="s">
         <v>160</v>
       </c>
@@ -28403,7 +29443,9 @@
       <c r="K522" t="s">
         <v>160</v>
       </c>
-      <c r="L522" s="0"/>
+      <c r="L522" t="s">
+        <v>162</v>
+      </c>
       <c r="M522" t="s">
         <v>160</v>
       </c>
@@ -28457,7 +29499,9 @@
       <c r="K523" t="s">
         <v>160</v>
       </c>
-      <c r="L523" s="0"/>
+      <c r="L523" t="s">
+        <v>162</v>
+      </c>
       <c r="M523" t="s">
         <v>160</v>
       </c>
@@ -28511,7 +29555,9 @@
       <c r="K524" t="s">
         <v>160</v>
       </c>
-      <c r="L524" s="0"/>
+      <c r="L524" t="s">
+        <v>162</v>
+      </c>
       <c r="M524" t="s">
         <v>160</v>
       </c>
@@ -28565,7 +29611,9 @@
       <c r="K525" t="s">
         <v>160</v>
       </c>
-      <c r="L525" s="0"/>
+      <c r="L525" t="s">
+        <v>162</v>
+      </c>
       <c r="M525" t="s">
         <v>160</v>
       </c>
@@ -28619,7 +29667,9 @@
       <c r="K526" t="s">
         <v>160</v>
       </c>
-      <c r="L526" s="0"/>
+      <c r="L526" t="s">
+        <v>162</v>
+      </c>
       <c r="M526" t="s">
         <v>160</v>
       </c>
@@ -28671,7 +29721,9 @@
       <c r="K527" t="s">
         <v>160</v>
       </c>
-      <c r="L527" s="0"/>
+      <c r="L527" t="s">
+        <v>162</v>
+      </c>
       <c r="M527" t="s">
         <v>160</v>
       </c>
@@ -28725,7 +29777,9 @@
       <c r="K528" t="s">
         <v>160</v>
       </c>
-      <c r="L528" s="0"/>
+      <c r="L528" t="s">
+        <v>162</v>
+      </c>
       <c r="M528" t="s">
         <v>160</v>
       </c>
@@ -28779,7 +29833,9 @@
       <c r="K529" t="s">
         <v>160</v>
       </c>
-      <c r="L529" s="0"/>
+      <c r="L529" t="s">
+        <v>162</v>
+      </c>
       <c r="M529" t="s">
         <v>160</v>
       </c>
@@ -28833,7 +29889,9 @@
       <c r="K530" t="s">
         <v>160</v>
       </c>
-      <c r="L530" s="0"/>
+      <c r="L530" t="s">
+        <v>162</v>
+      </c>
       <c r="M530" t="s">
         <v>160</v>
       </c>
@@ -28887,7 +29945,9 @@
       <c r="K531" t="s">
         <v>160</v>
       </c>
-      <c r="L531" s="0"/>
+      <c r="L531" t="s">
+        <v>162</v>
+      </c>
       <c r="M531" t="s">
         <v>160</v>
       </c>
@@ -28941,7 +30001,9 @@
       <c r="K532" t="s">
         <v>160</v>
       </c>
-      <c r="L532" s="0"/>
+      <c r="L532" t="s">
+        <v>162</v>
+      </c>
       <c r="M532" t="s">
         <v>160</v>
       </c>
@@ -28995,7 +30057,9 @@
       <c r="K533" t="s">
         <v>160</v>
       </c>
-      <c r="L533" s="0"/>
+      <c r="L533" t="s">
+        <v>162</v>
+      </c>
       <c r="M533" t="s">
         <v>159</v>
       </c>
@@ -29049,7 +30113,9 @@
       <c r="K534" t="s">
         <v>160</v>
       </c>
-      <c r="L534" s="0"/>
+      <c r="L534" t="s">
+        <v>162</v>
+      </c>
       <c r="M534" t="s">
         <v>159</v>
       </c>
@@ -29101,7 +30167,9 @@
       <c r="K535" t="s">
         <v>160</v>
       </c>
-      <c r="L535" s="0"/>
+      <c r="L535" t="s">
+        <v>162</v>
+      </c>
       <c r="M535" t="s">
         <v>160</v>
       </c>
@@ -29155,7 +30223,9 @@
       <c r="K536" t="s">
         <v>160</v>
       </c>
-      <c r="L536" s="0"/>
+      <c r="L536" t="s">
+        <v>162</v>
+      </c>
       <c r="M536" t="s">
         <v>160</v>
       </c>
@@ -29209,7 +30279,9 @@
       <c r="K537" t="s">
         <v>160</v>
       </c>
-      <c r="L537" s="0"/>
+      <c r="L537" t="s">
+        <v>162</v>
+      </c>
       <c r="M537" t="s">
         <v>160</v>
       </c>
@@ -29263,7 +30335,9 @@
       <c r="K538" t="s">
         <v>160</v>
       </c>
-      <c r="L538" s="0"/>
+      <c r="L538" t="s">
+        <v>162</v>
+      </c>
       <c r="M538" t="s">
         <v>160</v>
       </c>
@@ -29317,7 +30391,9 @@
       <c r="K539" t="s">
         <v>160</v>
       </c>
-      <c r="L539" s="0"/>
+      <c r="L539" t="s">
+        <v>162</v>
+      </c>
       <c r="M539" t="s">
         <v>160</v>
       </c>
@@ -29371,7 +30447,9 @@
       <c r="K540" t="s">
         <v>160</v>
       </c>
-      <c r="L540" s="0"/>
+      <c r="L540" t="s">
+        <v>162</v>
+      </c>
       <c r="M540" t="s">
         <v>160</v>
       </c>
@@ -29425,7 +30503,9 @@
       <c r="K541" t="s">
         <v>160</v>
       </c>
-      <c r="L541" s="0"/>
+      <c r="L541" t="s">
+        <v>162</v>
+      </c>
       <c r="M541" t="s">
         <v>160</v>
       </c>
@@ -29479,7 +30559,9 @@
       <c r="K542" t="s">
         <v>160</v>
       </c>
-      <c r="L542" s="0"/>
+      <c r="L542" t="s">
+        <v>162</v>
+      </c>
       <c r="M542" t="s">
         <v>160</v>
       </c>
@@ -29533,7 +30615,9 @@
       <c r="K543" t="s">
         <v>160</v>
       </c>
-      <c r="L543" s="0"/>
+      <c r="L543" t="s">
+        <v>162</v>
+      </c>
       <c r="M543" t="s">
         <v>160</v>
       </c>
@@ -29585,7 +30669,9 @@
       <c r="K544" t="s">
         <v>159</v>
       </c>
-      <c r="L544" s="0"/>
+      <c r="L544" t="s">
+        <v>162</v>
+      </c>
       <c r="M544" t="s">
         <v>159</v>
       </c>
@@ -29637,7 +30723,9 @@
       <c r="K545" t="s">
         <v>160</v>
       </c>
-      <c r="L545" s="0"/>
+      <c r="L545" t="s">
+        <v>162</v>
+      </c>
       <c r="M545" t="s">
         <v>160</v>
       </c>
@@ -29691,7 +30779,9 @@
       <c r="K546" t="s">
         <v>159</v>
       </c>
-      <c r="L546" s="0"/>
+      <c r="L546" t="s">
+        <v>162</v>
+      </c>
       <c r="M546" t="s">
         <v>159</v>
       </c>
@@ -29743,7 +30833,9 @@
       <c r="K547" t="s">
         <v>160</v>
       </c>
-      <c r="L547" s="0"/>
+      <c r="L547" t="s">
+        <v>162</v>
+      </c>
       <c r="M547" t="s">
         <v>160</v>
       </c>
@@ -29795,7 +30887,9 @@
       <c r="K548" t="s">
         <v>160</v>
       </c>
-      <c r="L548" s="0"/>
+      <c r="L548" t="s">
+        <v>162</v>
+      </c>
       <c r="M548" t="s">
         <v>160</v>
       </c>
@@ -29847,7 +30941,9 @@
       <c r="K549" t="s">
         <v>160</v>
       </c>
-      <c r="L549" s="0"/>
+      <c r="L549" t="s">
+        <v>162</v>
+      </c>
       <c r="M549" t="s">
         <v>160</v>
       </c>
@@ -29901,7 +30997,9 @@
       <c r="K550" t="s">
         <v>160</v>
       </c>
-      <c r="L550" s="0"/>
+      <c r="L550" t="s">
+        <v>162</v>
+      </c>
       <c r="M550" t="s">
         <v>160</v>
       </c>
@@ -29953,7 +31051,9 @@
       <c r="K551" t="s">
         <v>160</v>
       </c>
-      <c r="L551" s="0"/>
+      <c r="L551" t="s">
+        <v>162</v>
+      </c>
       <c r="M551" t="s">
         <v>160</v>
       </c>
@@ -30007,7 +31107,9 @@
       <c r="K552" t="s">
         <v>160</v>
       </c>
-      <c r="L552" s="0"/>
+      <c r="L552" t="s">
+        <v>162</v>
+      </c>
       <c r="M552" t="s">
         <v>160</v>
       </c>
@@ -30059,7 +31161,9 @@
       <c r="K553" t="s">
         <v>160</v>
       </c>
-      <c r="L553" s="0"/>
+      <c r="L553" t="s">
+        <v>162</v>
+      </c>
       <c r="M553" t="s">
         <v>160</v>
       </c>
@@ -30113,7 +31217,9 @@
       <c r="K554" t="s">
         <v>160</v>
       </c>
-      <c r="L554" s="0"/>
+      <c r="L554" t="s">
+        <v>162</v>
+      </c>
       <c r="M554" t="s">
         <v>160</v>
       </c>
@@ -30165,7 +31271,9 @@
       <c r="K555" t="s">
         <v>160</v>
       </c>
-      <c r="L555" s="0"/>
+      <c r="L555" t="s">
+        <v>162</v>
+      </c>
       <c r="M555" t="s">
         <v>159</v>
       </c>
@@ -30219,7 +31327,9 @@
       <c r="K556" t="s">
         <v>160</v>
       </c>
-      <c r="L556" s="0"/>
+      <c r="L556" t="s">
+        <v>162</v>
+      </c>
       <c r="M556" t="s">
         <v>160</v>
       </c>
@@ -30271,7 +31381,9 @@
       <c r="K557" t="s">
         <v>160</v>
       </c>
-      <c r="L557" s="0"/>
+      <c r="L557" t="s">
+        <v>162</v>
+      </c>
       <c r="M557" t="s">
         <v>159</v>
       </c>
@@ -30323,7 +31435,9 @@
       <c r="K558" t="s">
         <v>160</v>
       </c>
-      <c r="L558" s="0"/>
+      <c r="L558" t="s">
+        <v>162</v>
+      </c>
       <c r="M558" t="s">
         <v>160</v>
       </c>
@@ -30375,7 +31489,9 @@
       <c r="K559" t="s">
         <v>160</v>
       </c>
-      <c r="L559" s="0"/>
+      <c r="L559" t="s">
+        <v>162</v>
+      </c>
       <c r="M559" t="s">
         <v>160</v>
       </c>
@@ -30427,7 +31543,9 @@
       <c r="K560" t="s">
         <v>160</v>
       </c>
-      <c r="L560" s="0"/>
+      <c r="L560" t="s">
+        <v>162</v>
+      </c>
       <c r="M560" t="s">
         <v>160</v>
       </c>
@@ -30481,7 +31599,9 @@
       <c r="K561" t="s">
         <v>160</v>
       </c>
-      <c r="L561" s="0"/>
+      <c r="L561" t="s">
+        <v>162</v>
+      </c>
       <c r="M561" t="s">
         <v>160</v>
       </c>
@@ -30535,7 +31655,9 @@
       <c r="K562" t="s">
         <v>160</v>
       </c>
-      <c r="L562" s="0"/>
+      <c r="L562" t="s">
+        <v>162</v>
+      </c>
       <c r="M562" t="s">
         <v>160</v>
       </c>
@@ -30587,7 +31709,9 @@
       <c r="K563" t="s">
         <v>160</v>
       </c>
-      <c r="L563" s="0"/>
+      <c r="L563" t="s">
+        <v>162</v>
+      </c>
       <c r="M563" t="s">
         <v>160</v>
       </c>
@@ -30639,7 +31763,9 @@
       <c r="K564" t="s">
         <v>160</v>
       </c>
-      <c r="L564" s="0"/>
+      <c r="L564" t="s">
+        <v>162</v>
+      </c>
       <c r="M564" t="s">
         <v>160</v>
       </c>
@@ -30693,7 +31819,9 @@
       <c r="K565" t="s">
         <v>159</v>
       </c>
-      <c r="L565" s="0"/>
+      <c r="L565" t="s">
+        <v>162</v>
+      </c>
       <c r="M565" t="s">
         <v>160</v>
       </c>
@@ -30747,7 +31875,9 @@
       <c r="K566" t="s">
         <v>159</v>
       </c>
-      <c r="L566" s="0"/>
+      <c r="L566" t="s">
+        <v>162</v>
+      </c>
       <c r="M566" t="s">
         <v>160</v>
       </c>
@@ -30801,7 +31931,9 @@
       <c r="K567" t="s">
         <v>160</v>
       </c>
-      <c r="L567" s="0"/>
+      <c r="L567" t="s">
+        <v>162</v>
+      </c>
       <c r="M567" t="s">
         <v>160</v>
       </c>
@@ -30855,7 +31987,9 @@
       <c r="K568" t="s">
         <v>159</v>
       </c>
-      <c r="L568" s="0"/>
+      <c r="L568" t="s">
+        <v>162</v>
+      </c>
       <c r="M568" t="s">
         <v>160</v>
       </c>
@@ -30907,7 +32041,9 @@
       <c r="K569" t="s">
         <v>159</v>
       </c>
-      <c r="L569" s="0"/>
+      <c r="L569" t="s">
+        <v>162</v>
+      </c>
       <c r="M569" t="s">
         <v>160</v>
       </c>
@@ -30959,7 +32095,9 @@
       <c r="K570" t="s">
         <v>160</v>
       </c>
-      <c r="L570" s="0"/>
+      <c r="L570" t="s">
+        <v>162</v>
+      </c>
       <c r="M570" t="s">
         <v>160</v>
       </c>
@@ -31011,7 +32149,9 @@
       <c r="K571" t="s">
         <v>160</v>
       </c>
-      <c r="L571" s="0"/>
+      <c r="L571" t="s">
+        <v>162</v>
+      </c>
       <c r="M571" t="s">
         <v>160</v>
       </c>
@@ -31063,7 +32203,9 @@
       <c r="K572" t="s">
         <v>160</v>
       </c>
-      <c r="L572" s="0"/>
+      <c r="L572" t="s">
+        <v>162</v>
+      </c>
       <c r="M572" t="s">
         <v>160</v>
       </c>
@@ -31117,7 +32259,9 @@
       <c r="K573" t="s">
         <v>160</v>
       </c>
-      <c r="L573" s="0"/>
+      <c r="L573" t="s">
+        <v>162</v>
+      </c>
       <c r="M573" t="s">
         <v>160</v>
       </c>
@@ -31171,7 +32315,9 @@
       <c r="K574" t="s">
         <v>159</v>
       </c>
-      <c r="L574" s="0"/>
+      <c r="L574" t="s">
+        <v>162</v>
+      </c>
       <c r="M574" t="s">
         <v>160</v>
       </c>
@@ -31225,7 +32371,9 @@
       <c r="K575" t="s">
         <v>160</v>
       </c>
-      <c r="L575" s="0"/>
+      <c r="L575" t="s">
+        <v>162</v>
+      </c>
       <c r="M575" t="s">
         <v>159</v>
       </c>
@@ -31279,7 +32427,9 @@
       <c r="K576" t="s">
         <v>160</v>
       </c>
-      <c r="L576" s="0"/>
+      <c r="L576" t="s">
+        <v>162</v>
+      </c>
       <c r="M576" t="s">
         <v>160</v>
       </c>
@@ -31333,7 +32483,9 @@
       <c r="K577" t="s">
         <v>160</v>
       </c>
-      <c r="L577" s="0"/>
+      <c r="L577" t="s">
+        <v>162</v>
+      </c>
       <c r="M577" t="s">
         <v>160</v>
       </c>

--- a/produtores_gorongosa.xlsx
+++ b/produtores_gorongosa.xlsx
@@ -519,7 +519,7 @@
     <t>Familia_Beneficiario</t>
   </si>
   <si>
-    <t>ProdutorLider</t>
+    <t>ProdutorLider1SIM0não</t>
   </si>
   <si>
     <t>presenca</t>
